--- a/BAOCAO/Tailieuthietke/FormGioHang.xlsx
+++ b/BAOCAO/Tailieuthietke/FormGioHang.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguoi\OneDrive\Desktop\MTT\TTTN\BAOCAO\Tailieuthietke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HDT\MTT\BAOCAO\Tailieuthietke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775FEF6-80A9-48F0-8939-DE26DD5153B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -497,7 +496,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1244,139 +1243,250 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1385,121 +1495,19 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1520,17 +1528,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1541,18 +1552,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,17 +1621,35 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1642,33 +1659,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準_基本要件仕様書_20061109" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準_基本設計書(FWIH105)" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="2"/>
+    <cellStyle name="標準_基本要件仕様書_20061109" xfId="4"/>
+    <cellStyle name="標準_基本設計書(FWIH105)" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1710,7 +1709,7 @@
         <xdr:cNvPr id="29" name="Group 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F7F71D-FAC6-60C0-63FD-A628F8510D26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F7F71D-FAC6-60C0-63FD-A628F8510D26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1728,7 @@
           <xdr:cNvPr id="19" name="Group 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8D111E-1E6C-5A85-C78B-C6E433094379}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE8D111E-1E6C-5A85-C78B-C6E433094379}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1748,7 +1747,7 @@
             <xdr:cNvPr id="15" name="Group 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1007BBB5-45F2-E08E-3ABD-EEBBD9DA721A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1007BBB5-45F2-E08E-3ABD-EEBBD9DA721A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1767,7 +1766,7 @@
               <xdr:cNvPr id="6" name="AutoShape 14">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD266945-3109-4179-943B-7A5A2E15237F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD266945-3109-4179-943B-7A5A2E15237F}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1816,7 +1815,7 @@
               <xdr:cNvPr id="7" name="AutoShape 22">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCA2DCA-75EB-4D38-9747-CB04892CF2CE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DCA2DCA-75EB-4D38-9747-CB04892CF2CE}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1867,7 +1866,7 @@
               <xdr:cNvPr id="8" name="Rectangle 25">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405A73AC-ABBF-41AB-82B8-A9845140D7C8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{405A73AC-ABBF-41AB-82B8-A9845140D7C8}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1919,7 +1918,7 @@
               <xdr:cNvPr id="9" name="Rectangle 4459">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A4581F-F55B-47A1-8CFD-8CA1FCD957C5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02A4581F-F55B-47A1-8CFD-8CA1FCD957C5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1980,7 +1979,7 @@
               <xdr:cNvPr id="10" name="Text Box 4320">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2738FA-1F16-4BAC-9BB8-A83DD813B56D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE2738FA-1F16-4BAC-9BB8-A83DD813B56D}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2075,7 +2074,7 @@
               <xdr:cNvPr id="11" name="Line 4328">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F129E75-8AC4-4616-8E91-485948CF3558}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F129E75-8AC4-4616-8E91-485948CF3558}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2124,7 +2123,7 @@
               <xdr:cNvPr id="12" name="Line 4328">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28363902-61EE-408E-BD4B-1F74842286A3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28363902-61EE-408E-BD4B-1F74842286A3}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2173,7 +2172,7 @@
               <xdr:cNvPr id="13" name="Text Box 4324">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F10527-EFA5-43B7-BF8B-8F8FB7DB6ABB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97F10527-EFA5-43B7-BF8B-8F8FB7DB6ABB}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2253,7 +2252,7 @@
             <xdr:cNvPr id="17" name="Graphic 16" descr="Monitor">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908FA18A-2CCA-6026-B9B3-74207EAE3E2A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{908FA18A-2CCA-6026-B9B3-74207EAE3E2A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2268,7 +2267,7 @@
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -2291,7 +2290,7 @@
             <xdr:cNvPr id="18" name="Graphic 17" descr="Monitor">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7002ED-AAA4-4B85-9BDB-FE7EF0DBD7E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E7002ED-AAA4-4B85-9BDB-FE7EF0DBD7E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2306,7 +2305,7 @@
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -2330,7 +2329,7 @@
           <xdr:cNvPr id="2" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE544D0-840B-47E8-922A-FD8D8C0F1550}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBE544D0-840B-47E8-922A-FD8D8C0F1550}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2379,7 +2378,7 @@
           <xdr:cNvPr id="5" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08283042-75E8-CEE7-5B5E-25EE2DA032E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08283042-75E8-CEE7-5B5E-25EE2DA032E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2389,7 +2388,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5363229" y="27156425"/>
+            <a:off x="5470742" y="27210233"/>
             <a:ext cx="649934" cy="667828"/>
           </a:xfrm>
           <a:prstGeom prst="can">
@@ -2428,35 +2427,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>343913</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>26146</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174041</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>138913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160800</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>158185</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554478</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>145364</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6939F528-D65B-4CD5-8E80-06D2EB25CA60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6939F528-D65B-4CD5-8E80-06D2EB25CA60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-          <a:endCxn id="17" idx="2"/>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="2" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4804401" y="25964347"/>
-          <a:ext cx="1024936" cy="329509"/>
+          <a:off x="5303934" y="27380413"/>
+          <a:ext cx="380437" cy="6451"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2501,7 +2500,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5180D1DA-DC28-4593-B609-B07B03F25012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5180D1DA-DC28-4593-B609-B07B03F25012}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2562,7 @@
         <xdr:cNvPr id="106" name="Group 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087870BD-CB12-3988-97C8-6D32A4441398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{087870BD-CB12-3988-97C8-6D32A4441398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2581,7 @@
           <xdr:cNvPr id="62" name="Group 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532AC133-73F4-43C1-A705-18E86B12E7A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{532AC133-73F4-43C1-A705-18E86B12E7A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2601,7 +2600,7 @@
             <xdr:cNvPr id="63" name="Group 62">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9399F526-4C41-C45A-311A-F367646FADFE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9399F526-4C41-C45A-311A-F367646FADFE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2620,7 +2619,7 @@
               <xdr:cNvPr id="66" name="Group 65">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1140A6-E817-8F4D-B1EF-D0C532C72942}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD1140A6-E817-8F4D-B1EF-D0C532C72942}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2639,7 +2638,7 @@
                 <xdr:cNvPr id="70" name="Group 69">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD11A802-5355-2294-C31C-6CA81F557A95}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD11A802-5355-2294-C31C-6CA81F557A95}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2658,7 +2657,7 @@
                   <xdr:cNvPr id="86" name="Group 85">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C1EEC7-5892-607D-6037-0C6459975C2D}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9C1EEC7-5892-607D-6037-0C6459975C2D}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -2677,7 +2676,7 @@
                     <xdr:cNvPr id="88" name="Group 87">
                       <a:extLst>
                         <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC2138-B6C0-4840-4DF0-98B00F4DEDC0}"/>
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABCC2138-B6C0-4840-4DF0-98B00F4DEDC0}"/>
                         </a:ext>
                       </a:extLst>
                     </xdr:cNvPr>
@@ -2696,7 +2695,7 @@
                       <xdr:cNvPr id="100" name="Rectangle 99">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1130C0-B901-EA02-75EA-C52276264023}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB1130C0-B901-EA02-75EA-C52276264023}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -2740,7 +2739,7 @@
                       <xdr:cNvPr id="101" name="Picture 100">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355815A4-25F3-B29C-594C-C6E504E83DD3}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{355815A4-25F3-B29C-594C-C6E504E83DD3}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -2769,7 +2768,7 @@
                       <xdr:cNvPr id="102" name="Rectangle 101">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B90BF3-1282-69FB-C1EB-FF009868331D}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9B90BF3-1282-69FB-C1EB-FF009868331D}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -2822,7 +2821,7 @@
                       <xdr:cNvPr id="103" name="Rectangle: Rounded Corners 102">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5301FA5-CF83-51FD-776D-9B2AD44426A9}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5301FA5-CF83-51FD-776D-9B2AD44426A9}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -2874,7 +2873,7 @@
                     <xdr:cNvPr id="89" name="Group 88">
                       <a:extLst>
                         <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4616FD99-307A-E9A1-DA7C-ACB5E2E5580C}"/>
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4616FD99-307A-E9A1-DA7C-ACB5E2E5580C}"/>
                         </a:ext>
                       </a:extLst>
                     </xdr:cNvPr>
@@ -2893,7 +2892,7 @@
                       <xdr:cNvPr id="90" name="Straight Connector 89">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5444A136-9550-9794-8864-F87A290DB556}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5444A136-9550-9794-8864-F87A290DB556}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -2936,7 +2935,7 @@
                       <xdr:cNvPr id="91" name="Straight Connector 90">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0CC0B7-4CE1-3143-FB4A-F66D8640D571}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D0CC0B7-4CE1-3143-FB4A-F66D8640D571}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -2979,7 +2978,7 @@
                       <xdr:cNvPr id="92" name="Straight Connector 91">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703E8F8E-F4FB-2570-063D-A64A4D25F7F3}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{703E8F8E-F4FB-2570-063D-A64A4D25F7F3}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3022,7 +3021,7 @@
                       <xdr:cNvPr id="93" name="Straight Connector 92">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E53899-4F22-3901-D72C-E5A65993C941}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E53899-4F22-3901-D72C-E5A65993C941}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3065,7 +3064,7 @@
                       <xdr:cNvPr id="94" name="Rectangle 93">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A22C716-FE09-66EA-A942-C1A8F873384C}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A22C716-FE09-66EA-A942-C1A8F873384C}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3120,7 +3119,7 @@
                       <xdr:cNvPr id="95" name="Rectangle 94">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75FB4D6-8DCC-1C9B-7046-866DB5AAE277}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75FB4D6-8DCC-1C9B-7046-866DB5AAE277}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3170,7 +3169,7 @@
                       <xdr:cNvPr id="96" name="Rectangle 95">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CA1ECD-FE70-548B-F8B6-B555298178E1}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30CA1ECD-FE70-548B-F8B6-B555298178E1}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3220,7 +3219,7 @@
                       <xdr:cNvPr id="97" name="Rectangle 96">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B108D27B-8209-FB6A-C8C4-A524A0F05200}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B108D27B-8209-FB6A-C8C4-A524A0F05200}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3275,7 +3274,7 @@
                       <xdr:cNvPr id="98" name="Rectangle 97">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E32BE4-2F4F-CEE1-436A-AC2D235067E9}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97E32BE4-2F4F-CEE1-436A-AC2D235067E9}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3330,7 +3329,7 @@
                       <xdr:cNvPr id="99" name="Straight Connector 98">
                         <a:extLst>
                           <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073921D3-D1A8-B242-790E-D2A5A57CE2A5}"/>
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{073921D3-D1A8-B242-790E-D2A5A57CE2A5}"/>
                           </a:ext>
                         </a:extLst>
                       </xdr:cNvPr>
@@ -3375,7 +3374,7 @@
                   <xdr:cNvPr id="87" name="Rectangle 86">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE6F574-C228-7ECE-4399-04ECFF4F9704}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EE6F574-C228-7ECE-4399-04ECFF4F9704}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -3431,7 +3430,7 @@
                 <xdr:cNvPr id="71" name="Rectangle 70">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443D1106-ED51-0255-6278-51D97457A3E2}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{443D1106-ED51-0255-6278-51D97457A3E2}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3486,7 +3485,7 @@
                 <xdr:cNvPr id="72" name="Rectangle 71">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEA742D-B940-5AD5-662C-85CD35878AD5}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCEA742D-B940-5AD5-662C-85CD35878AD5}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3536,7 +3535,7 @@
                 <xdr:cNvPr id="73" name="Rectangle 72">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B412753-C305-4E09-D281-642D51ECC083}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B412753-C305-4E09-D281-642D51ECC083}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3585,7 +3584,7 @@
                 <xdr:cNvPr id="74" name="Rectangle 73">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A960885-A371-511C-444F-F629C5D2E5BE}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A960885-A371-511C-444F-F629C5D2E5BE}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3635,7 +3634,7 @@
                 <xdr:cNvPr id="75" name="Rectangle 74">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193D6348-BEA7-4AE1-DA7D-A2900A8FB7CD}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{193D6348-BEA7-4AE1-DA7D-A2900A8FB7CD}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3695,7 +3694,7 @@
                 <xdr:cNvPr id="76" name="Rectangle 75">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3669136D-5FD0-C013-4E9A-78148811646B}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3669136D-5FD0-C013-4E9A-78148811646B}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3744,7 +3743,7 @@
                 <xdr:cNvPr id="77" name="Rectangle 76">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE078AD-E438-4228-E2FD-DEBBA4F18468}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CE078AD-E438-4228-E2FD-DEBBA4F18468}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3799,7 +3798,7 @@
                 <xdr:cNvPr id="78" name="Rectangle 77">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC990EE-2490-58F6-5B66-F119F0CB34D2}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EC990EE-2490-58F6-5B66-F119F0CB34D2}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3859,7 +3858,7 @@
                 <xdr:cNvPr id="79" name="Rectangle 78">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6845596-0436-1FDA-9DB3-6D291ABA79FD}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6845596-0436-1FDA-9DB3-6D291ABA79FD}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3909,7 +3908,7 @@
                 <xdr:cNvPr id="80" name="Rectangle 79">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A40619C-9C3C-E451-5083-82C665699246}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A40619C-9C3C-E451-5083-82C665699246}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3959,7 +3958,7 @@
                 <xdr:cNvPr id="81" name="Rectangle 80">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6F8985-DC4C-2060-3779-6F20139F6057}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA6F8985-DC4C-2060-3779-6F20139F6057}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4009,7 +4008,7 @@
                 <xdr:cNvPr id="82" name="Rectangle 81">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5859FB2-BECA-BD38-4459-A7F70645652A}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5859FB2-BECA-BD38-4459-A7F70645652A}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4063,7 +4062,7 @@
                 <xdr:cNvPr id="83" name="Rectangle 82">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F8FED3-638A-5CBF-EC94-1C4C971D9EDA}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7F8FED3-638A-5CBF-EC94-1C4C971D9EDA}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4117,7 +4116,7 @@
                 <xdr:cNvPr id="84" name="Rectangle 83">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9289DB-96CA-9FCA-945F-3FE778939936}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C9289DB-96CA-9FCA-945F-3FE778939936}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4171,7 +4170,7 @@
                 <xdr:cNvPr id="85" name="Rectangle 84">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB0B96C-A01B-F000-1C6C-CCEB317E7F36}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DB0B96C-A01B-F000-1C6C-CCEB317E7F36}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4226,7 +4225,7 @@
               <xdr:cNvPr id="67" name="Rectangle: Rounded Corners 66">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2644079A-8677-999C-2619-09B0259E6C2A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2644079A-8677-999C-2619-09B0259E6C2A}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4288,7 +4287,7 @@
               <xdr:cNvPr id="68" name="Graphic 67" descr="User">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C668D32-74A4-1D17-5AD8-820D330C00E0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C668D32-74A4-1D17-5AD8-820D330C00E0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4303,7 +4302,7 @@
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                   </a:ext>
                   <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId3"/>
                   </a:ext>
                 </a:extLst>
               </a:blip>
@@ -4326,7 +4325,7 @@
               <xdr:cNvPr id="69" name="Graphic 68" descr="Shopping cart">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFE2DFE-6ED5-73C6-C698-37F7E23FDA48}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BFE2DFE-6ED5-73C6-C698-37F7E23FDA48}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4341,7 +4340,7 @@
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                   </a:ext>
                   <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId5"/>
                   </a:ext>
                 </a:extLst>
               </a:blip>
@@ -4365,7 +4364,7 @@
             <xdr:cNvPr id="64" name="Picture 63">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9458EC-97EE-8E47-E139-21DEB76FB02B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E9458EC-97EE-8E47-E139-21DEB76FB02B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4394,7 +4393,7 @@
             <xdr:cNvPr id="65" name="Picture 64">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADF6ACA-D384-4E80-A8EA-37DB689110B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADF6ACA-D384-4E80-A8EA-37DB689110B9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4424,7 +4423,7 @@
           <xdr:cNvPr id="104" name="Picture 103">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6680D2CB-DB7A-43FE-9C8A-07D551730FC7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6680D2CB-DB7A-43FE-9C8A-07D551730FC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4453,7 +4452,7 @@
           <xdr:cNvPr id="105" name="Picture 104">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E968D-16C4-4CC2-99D8-D5FB3F43224C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E968D-16C4-4CC2-99D8-D5FB3F43224C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4503,7 +4502,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFE0FD7-DB9B-FBE4-C527-14F957AB2938}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CFE0FD7-DB9B-FBE4-C527-14F957AB2938}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4547,7 +4546,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C569B1A5-8721-CB18-D8DE-7E3F3CB88CCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C569B1A5-8721-CB18-D8DE-7E3F3CB88CCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,7 +4590,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BCDFD3-192C-500D-30B0-2AB333B69581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64BCDFD3-192C-500D-30B0-2AB333B69581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4640,7 +4639,7 @@
         <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BAC81A-D03D-876B-86FE-29093B219CB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69BAC81A-D03D-876B-86FE-29093B219CB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4659,7 +4658,7 @@
           <xdr:cNvPr id="2" name="Picture 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84CBD70-C353-49AE-F587-20BCC395C136}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84CBD70-C353-49AE-F587-20BCC395C136}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4688,7 +4687,7 @@
           <xdr:cNvPr id="3" name="Picture 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B54FB9-61F8-356D-44E6-B75C165E8336}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2B54FB9-61F8-356D-44E6-B75C165E8336}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4733,7 +4732,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7B7F12-CBE6-74AE-7594-22D3450E45F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E7B7F12-CBE6-74AE-7594-22D3450E45F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,11 +5023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y206"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="T131" sqref="T131"/>
+      <selection activeCell="S141" sqref="S141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5041,348 +5040,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="105" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="105" t="s">
+      <c r="K1" s="106"/>
+      <c r="L1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="90" t="s">
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="105" t="s">
+      <c r="Q1" s="106"/>
+      <c r="R1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="92" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="92"/>
-      <c r="W1" s="98">
+      <c r="V1" s="107"/>
+      <c r="W1" s="118">
         <v>45026</v>
       </c>
-      <c r="X1" s="91"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="90" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92" t="s">
+      <c r="Q2" s="106"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="90" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="91" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="109"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="114"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="110"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="109"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="114"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="110"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="109"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="114"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="110"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="109"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="110"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="109"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="110"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="109"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="114"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="110"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="109"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="114"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="110"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="109"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="114"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="110"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="109"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="114"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="28"/>
@@ -5391,21 +5390,21 @@
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="111" t="s">
+      <c r="G13" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
@@ -5419,19 +5418,19 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
@@ -5445,19 +5444,19 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
@@ -5471,19 +5470,19 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
       <c r="T16" s="29"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
@@ -5497,19 +5496,19 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
       <c r="T17" s="29"/>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
@@ -5913,112 +5912,112 @@
       <c r="X39" s="18"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="105" t="s">
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105" t="s">
+      <c r="F40" s="90"/>
+      <c r="G40" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="97" t="s">
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="105" t="s">
+      <c r="K40" s="119"/>
+      <c r="L40" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="97" t="s">
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="105" t="s">
+      <c r="Q40" s="119"/>
+      <c r="R40" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="106" t="s">
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="V40" s="106"/>
-      <c r="W40" s="98">
+      <c r="V40" s="120"/>
+      <c r="W40" s="118">
         <v>45026</v>
       </c>
-      <c r="X40" s="91"/>
+      <c r="X40" s="112"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="97" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="106" t="s">
+      <c r="Q41" s="119"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="106"/>
-      <c r="W41" s="91"/>
-      <c r="X41" s="91"/>
+      <c r="V41" s="120"/>
+      <c r="W41" s="112"/>
+      <c r="X41" s="112"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="97" t="s">
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="97"/>
-      <c r="L42" s="91" t="s">
+      <c r="K42" s="119"/>
+      <c r="L42" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="106" t="s">
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="91" t="s">
+      <c r="Q42" s="120"/>
+      <c r="R42" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
-      <c r="W42" s="91"/>
-      <c r="X42" s="91"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="112"/>
+      <c r="V42" s="112"/>
+      <c r="W42" s="112"/>
+      <c r="X42" s="112"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="3"/>
@@ -6060,830 +6059,830 @@
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="96" t="s">
+      <c r="C47" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96" t="s">
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96" t="s">
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="119"/>
-      <c r="U47" s="119"/>
-      <c r="V47" s="120"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="97"/>
+      <c r="T47" s="98"/>
+      <c r="U47" s="98"/>
+      <c r="V47" s="99"/>
       <c r="W47" s="29"/>
       <c r="X47" s="8"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" thickBot="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="97" t="s">
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="97" t="s">
+      <c r="P48" s="119"/>
+      <c r="Q48" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="R48" s="97"/>
-      <c r="S48" s="97" t="s">
+      <c r="R48" s="119"/>
+      <c r="S48" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="T48" s="97"/>
-      <c r="U48" s="97" t="s">
+      <c r="T48" s="119"/>
+      <c r="U48" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="V48" s="97"/>
+      <c r="V48" s="119"/>
       <c r="W48" s="29"/>
       <c r="X48" s="8"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="6"/>
-      <c r="B49" s="99">
+      <c r="B49" s="108">
         <v>1</v>
       </c>
-      <c r="C49" s="100">
+      <c r="C49" s="127">
         <v>45026</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99" t="s">
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99" t="s">
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="99"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="99"/>
-      <c r="U49" s="99"/>
-      <c r="V49" s="99"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="108"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
       <c r="X49" s="8"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="6"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="99"/>
-      <c r="M50" s="99"/>
-      <c r="N50" s="99"/>
-      <c r="O50" s="99"/>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="99"/>
-      <c r="S50" s="99"/>
-      <c r="T50" s="99"/>
-      <c r="U50" s="99"/>
-      <c r="V50" s="99"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="108"/>
+      <c r="T50" s="108"/>
+      <c r="U50" s="108"/>
+      <c r="V50" s="108"/>
       <c r="X50" s="8"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="6"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="99"/>
-      <c r="O51" s="99"/>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="99"/>
-      <c r="S51" s="99"/>
-      <c r="T51" s="99"/>
-      <c r="U51" s="99"/>
-      <c r="V51" s="99"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="108"/>
+      <c r="T51" s="108"/>
+      <c r="U51" s="108"/>
+      <c r="V51" s="108"/>
       <c r="X51" s="8"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="6"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="99"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="99"/>
-      <c r="P52" s="99"/>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="99"/>
-      <c r="S52" s="99"/>
-      <c r="T52" s="99"/>
-      <c r="U52" s="99"/>
-      <c r="V52" s="99"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
       <c r="X52" s="8"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="6"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="99"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
-      <c r="V53" s="99"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="108"/>
+      <c r="N53" s="108"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="108"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="108"/>
+      <c r="T53" s="108"/>
+      <c r="U53" s="108"/>
+      <c r="V53" s="108"/>
       <c r="X53" s="8"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="6"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="99"/>
-      <c r="P54" s="99"/>
-      <c r="Q54" s="99"/>
-      <c r="R54" s="99"/>
-      <c r="S54" s="99"/>
-      <c r="T54" s="99"/>
-      <c r="U54" s="99"/>
-      <c r="V54" s="99"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="108"/>
+      <c r="U54" s="108"/>
+      <c r="V54" s="108"/>
       <c r="X54" s="8"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="6"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="99"/>
-      <c r="M55" s="99"/>
-      <c r="N55" s="99"/>
-      <c r="O55" s="99"/>
-      <c r="P55" s="99"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="99"/>
-      <c r="S55" s="99"/>
-      <c r="T55" s="99"/>
-      <c r="U55" s="99"/>
-      <c r="V55" s="99"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="108"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="108"/>
+      <c r="Q55" s="108"/>
+      <c r="R55" s="108"/>
+      <c r="S55" s="108"/>
+      <c r="T55" s="108"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="108"/>
       <c r="X55" s="8"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="6"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="99"/>
-      <c r="P56" s="99"/>
-      <c r="Q56" s="99"/>
-      <c r="R56" s="99"/>
-      <c r="S56" s="99"/>
-      <c r="T56" s="99"/>
-      <c r="U56" s="99"/>
-      <c r="V56" s="99"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="108"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
       <c r="X56" s="8"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="6"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="99"/>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="99"/>
-      <c r="S57" s="99"/>
-      <c r="T57" s="99"/>
-      <c r="U57" s="99"/>
-      <c r="V57" s="99"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="108"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="108"/>
+      <c r="Q57" s="108"/>
+      <c r="R57" s="108"/>
+      <c r="S57" s="108"/>
+      <c r="T57" s="108"/>
+      <c r="U57" s="108"/>
+      <c r="V57" s="108"/>
       <c r="X57" s="8"/>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="6"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="99"/>
-      <c r="O58" s="99"/>
-      <c r="P58" s="99"/>
-      <c r="Q58" s="99"/>
-      <c r="R58" s="99"/>
-      <c r="S58" s="99"/>
-      <c r="T58" s="99"/>
-      <c r="U58" s="99"/>
-      <c r="V58" s="99"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="108"/>
+      <c r="R58" s="108"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="108"/>
       <c r="X58" s="8"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="6"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="99"/>
-      <c r="L59" s="99"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="P59" s="99"/>
-      <c r="Q59" s="99"/>
-      <c r="R59" s="99"/>
-      <c r="S59" s="99"/>
-      <c r="T59" s="99"/>
-      <c r="U59" s="99"/>
-      <c r="V59" s="99"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="108"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
       <c r="X59" s="8"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="6"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
       <c r="X60" s="8"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="6"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="99"/>
-      <c r="S61" s="99"/>
-      <c r="T61" s="99"/>
-      <c r="U61" s="99"/>
-      <c r="V61" s="99"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="108"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
       <c r="X61" s="8"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="6"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="99"/>
-      <c r="T62" s="99"/>
-      <c r="U62" s="99"/>
-      <c r="V62" s="99"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="108"/>
+      <c r="V62" s="108"/>
       <c r="X62" s="8"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="6"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="108"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="108"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="108"/>
       <c r="X63" s="8"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="6"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="99"/>
-      <c r="O64" s="99"/>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="99"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="99"/>
-      <c r="V64" s="99"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="108"/>
+      <c r="S64" s="108"/>
+      <c r="T64" s="108"/>
+      <c r="U64" s="108"/>
+      <c r="V64" s="108"/>
       <c r="X64" s="8"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="6"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="99"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="99"/>
-      <c r="O65" s="99"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="99"/>
-      <c r="R65" s="99"/>
-      <c r="S65" s="99"/>
-      <c r="T65" s="99"/>
-      <c r="U65" s="99"/>
-      <c r="V65" s="99"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="108"/>
+      <c r="Q65" s="108"/>
+      <c r="R65" s="108"/>
+      <c r="S65" s="108"/>
+      <c r="T65" s="108"/>
+      <c r="U65" s="108"/>
+      <c r="V65" s="108"/>
       <c r="X65" s="8"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="6"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="99"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="99"/>
-      <c r="O66" s="99"/>
-      <c r="P66" s="99"/>
-      <c r="Q66" s="99"/>
-      <c r="R66" s="99"/>
-      <c r="S66" s="99"/>
-      <c r="T66" s="99"/>
-      <c r="U66" s="99"/>
-      <c r="V66" s="99"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="108"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="108"/>
+      <c r="N66" s="108"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="108"/>
+      <c r="Q66" s="108"/>
+      <c r="R66" s="108"/>
+      <c r="S66" s="108"/>
+      <c r="T66" s="108"/>
+      <c r="U66" s="108"/>
+      <c r="V66" s="108"/>
       <c r="X66" s="8"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="6"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="99"/>
-      <c r="L67" s="99"/>
-      <c r="M67" s="99"/>
-      <c r="N67" s="99"/>
-      <c r="O67" s="99"/>
-      <c r="P67" s="99"/>
-      <c r="Q67" s="99"/>
-      <c r="R67" s="99"/>
-      <c r="S67" s="99"/>
-      <c r="T67" s="99"/>
-      <c r="U67" s="99"/>
-      <c r="V67" s="99"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="108"/>
+      <c r="N67" s="108"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="108"/>
+      <c r="Q67" s="108"/>
+      <c r="R67" s="108"/>
+      <c r="S67" s="108"/>
+      <c r="T67" s="108"/>
+      <c r="U67" s="108"/>
+      <c r="V67" s="108"/>
       <c r="X67" s="8"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
-      <c r="K68" s="99"/>
-      <c r="L68" s="99"/>
-      <c r="M68" s="99"/>
-      <c r="N68" s="99"/>
-      <c r="O68" s="99"/>
-      <c r="P68" s="99"/>
-      <c r="Q68" s="99"/>
-      <c r="R68" s="99"/>
-      <c r="S68" s="99"/>
-      <c r="T68" s="99"/>
-      <c r="U68" s="99"/>
-      <c r="V68" s="99"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="108"/>
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="108"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="108"/>
+      <c r="Q68" s="108"/>
+      <c r="R68" s="108"/>
+      <c r="S68" s="108"/>
+      <c r="T68" s="108"/>
+      <c r="U68" s="108"/>
+      <c r="V68" s="108"/>
       <c r="X68" s="8"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="6"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="99"/>
-      <c r="J69" s="99"/>
-      <c r="K69" s="99"/>
-      <c r="L69" s="99"/>
-      <c r="M69" s="99"/>
-      <c r="N69" s="99"/>
-      <c r="O69" s="99"/>
-      <c r="P69" s="99"/>
-      <c r="Q69" s="99"/>
-      <c r="R69" s="99"/>
-      <c r="S69" s="99"/>
-      <c r="T69" s="99"/>
-      <c r="U69" s="99"/>
-      <c r="V69" s="99"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="108"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="108"/>
+      <c r="R69" s="108"/>
+      <c r="S69" s="108"/>
+      <c r="T69" s="108"/>
+      <c r="U69" s="108"/>
+      <c r="V69" s="108"/>
       <c r="X69" s="8"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="6"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="99"/>
-      <c r="S70" s="99"/>
-      <c r="T70" s="99"/>
-      <c r="U70" s="99"/>
-      <c r="V70" s="99"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="108"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
+      <c r="S70" s="108"/>
+      <c r="T70" s="108"/>
+      <c r="U70" s="108"/>
+      <c r="V70" s="108"/>
       <c r="X70" s="8"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="6"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99"/>
-      <c r="K71" s="99"/>
-      <c r="L71" s="99"/>
-      <c r="M71" s="99"/>
-      <c r="N71" s="99"/>
-      <c r="O71" s="99"/>
-      <c r="P71" s="99"/>
-      <c r="Q71" s="99"/>
-      <c r="R71" s="99"/>
-      <c r="S71" s="99"/>
-      <c r="T71" s="99"/>
-      <c r="U71" s="99"/>
-      <c r="V71" s="99"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108"/>
+      <c r="M71" s="108"/>
+      <c r="N71" s="108"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="108"/>
+      <c r="R71" s="108"/>
+      <c r="S71" s="108"/>
+      <c r="T71" s="108"/>
+      <c r="U71" s="108"/>
+      <c r="V71" s="108"/>
       <c r="X71" s="8"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="6"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="99"/>
-      <c r="P72" s="99"/>
-      <c r="Q72" s="99"/>
-      <c r="R72" s="99"/>
-      <c r="S72" s="99"/>
-      <c r="T72" s="99"/>
-      <c r="U72" s="99"/>
-      <c r="V72" s="99"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="108"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="108"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="108"/>
+      <c r="R72" s="108"/>
+      <c r="S72" s="108"/>
+      <c r="T72" s="108"/>
+      <c r="U72" s="108"/>
+      <c r="V72" s="108"/>
       <c r="X72" s="8"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="6"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
-      <c r="P73" s="99"/>
-      <c r="Q73" s="99"/>
-      <c r="R73" s="99"/>
-      <c r="S73" s="99"/>
-      <c r="T73" s="99"/>
-      <c r="U73" s="99"/>
-      <c r="V73" s="99"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="108"/>
+      <c r="Q73" s="108"/>
+      <c r="R73" s="108"/>
+      <c r="S73" s="108"/>
+      <c r="T73" s="108"/>
+      <c r="U73" s="108"/>
+      <c r="V73" s="108"/>
       <c r="X73" s="8"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="6"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="99"/>
-      <c r="O74" s="99"/>
-      <c r="P74" s="99"/>
-      <c r="Q74" s="99"/>
-      <c r="R74" s="99"/>
-      <c r="S74" s="99"/>
-      <c r="T74" s="99"/>
-      <c r="U74" s="99"/>
-      <c r="V74" s="99"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="108"/>
+      <c r="L74" s="108"/>
+      <c r="M74" s="108"/>
+      <c r="N74" s="108"/>
+      <c r="O74" s="108"/>
+      <c r="P74" s="108"/>
+      <c r="Q74" s="108"/>
+      <c r="R74" s="108"/>
+      <c r="S74" s="108"/>
+      <c r="T74" s="108"/>
+      <c r="U74" s="108"/>
+      <c r="V74" s="108"/>
       <c r="X74" s="8"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
-      <c r="P75" s="99"/>
-      <c r="Q75" s="99"/>
-      <c r="R75" s="99"/>
-      <c r="S75" s="99"/>
-      <c r="T75" s="99"/>
-      <c r="U75" s="99"/>
-      <c r="V75" s="99"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="108"/>
+      <c r="K75" s="108"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="108"/>
+      <c r="N75" s="108"/>
+      <c r="O75" s="108"/>
+      <c r="P75" s="108"/>
+      <c r="Q75" s="108"/>
+      <c r="R75" s="108"/>
+      <c r="S75" s="108"/>
+      <c r="T75" s="108"/>
+      <c r="U75" s="108"/>
+      <c r="V75" s="108"/>
       <c r="X75" s="8"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" thickBot="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="113"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="113"/>
-      <c r="K76" s="113"/>
-      <c r="L76" s="113"/>
-      <c r="M76" s="113"/>
-      <c r="N76" s="113"/>
-      <c r="O76" s="113"/>
-      <c r="P76" s="113"/>
-      <c r="Q76" s="113"/>
-      <c r="R76" s="113"/>
-      <c r="S76" s="113"/>
-      <c r="T76" s="113"/>
-      <c r="U76" s="113"/>
-      <c r="V76" s="114"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="109"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
+      <c r="R76" s="109"/>
+      <c r="S76" s="109"/>
+      <c r="T76" s="109"/>
+      <c r="U76" s="109"/>
+      <c r="V76" s="110"/>
       <c r="W76" s="35"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="6"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="6"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="88"/>
-      <c r="O77" s="88"/>
-      <c r="P77" s="88"/>
-      <c r="Q77" s="88"/>
-      <c r="R77" s="88"/>
-      <c r="S77" s="88"/>
-      <c r="T77" s="88"/>
-      <c r="U77" s="88"/>
-      <c r="V77" s="88"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="111"/>
+      <c r="P77" s="111"/>
+      <c r="Q77" s="111"/>
+      <c r="R77" s="111"/>
+      <c r="S77" s="111"/>
+      <c r="T77" s="111"/>
+      <c r="U77" s="111"/>
+      <c r="V77" s="111"/>
       <c r="X77" s="8"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="6"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="88"/>
-      <c r="M78" s="88"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="88"/>
-      <c r="P78" s="88"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="88"/>
-      <c r="S78" s="88"/>
-      <c r="T78" s="88"/>
-      <c r="U78" s="88"/>
-      <c r="V78" s="88"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="111"/>
+      <c r="M78" s="111"/>
+      <c r="N78" s="111"/>
+      <c r="O78" s="111"/>
+      <c r="P78" s="111"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+      <c r="S78" s="111"/>
+      <c r="T78" s="111"/>
+      <c r="U78" s="111"/>
+      <c r="V78" s="111"/>
       <c r="X78" s="8"/>
     </row>
     <row r="79" spans="1:25">
@@ -6917,112 +6916,112 @@
       <c r="X80" s="18"/>
     </row>
     <row r="81" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="105" t="s">
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105" t="s">
+      <c r="F81" s="90"/>
+      <c r="G81" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="105"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="90" t="s">
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="90"/>
-      <c r="L81" s="105" t="s">
+      <c r="K81" s="106"/>
+      <c r="L81" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
-      <c r="O81" s="105"/>
-      <c r="P81" s="90" t="s">
+      <c r="M81" s="90"/>
+      <c r="N81" s="90"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q81" s="90"/>
-      <c r="R81" s="105" t="s">
+      <c r="Q81" s="106"/>
+      <c r="R81" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="S81" s="105"/>
-      <c r="T81" s="105"/>
-      <c r="U81" s="92" t="s">
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="V81" s="92"/>
-      <c r="W81" s="98">
+      <c r="V81" s="107"/>
+      <c r="W81" s="118">
         <v>45026</v>
       </c>
-      <c r="X81" s="91"/>
+      <c r="X81" s="112"/>
     </row>
     <row r="82" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A82" s="107"/>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
-      <c r="I82" s="105"/>
-      <c r="J82" s="90"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="105"/>
-      <c r="M82" s="105"/>
-      <c r="N82" s="105"/>
-      <c r="O82" s="105"/>
-      <c r="P82" s="90" t="s">
+      <c r="A82" s="105"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="90"/>
+      <c r="J82" s="106"/>
+      <c r="K82" s="106"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="90"/>
+      <c r="N82" s="90"/>
+      <c r="O82" s="90"/>
+      <c r="P82" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="90"/>
-      <c r="R82" s="91"/>
-      <c r="S82" s="91"/>
-      <c r="T82" s="91"/>
-      <c r="U82" s="92" t="s">
+      <c r="Q82" s="106"/>
+      <c r="R82" s="112"/>
+      <c r="S82" s="112"/>
+      <c r="T82" s="112"/>
+      <c r="U82" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V82" s="92"/>
-      <c r="W82" s="91"/>
-      <c r="X82" s="91"/>
+      <c r="V82" s="107"/>
+      <c r="W82" s="112"/>
+      <c r="X82" s="112"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A83" s="107"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="90" t="s">
+      <c r="A83" s="105"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="90"/>
-      <c r="L83" s="91" t="s">
+      <c r="K83" s="106"/>
+      <c r="L83" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="92" t="s">
+      <c r="M83" s="112"/>
+      <c r="N83" s="112"/>
+      <c r="O83" s="112"/>
+      <c r="P83" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q83" s="92"/>
-      <c r="R83" s="91" t="s">
+      <c r="Q83" s="107"/>
+      <c r="R83" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="S83" s="91"/>
-      <c r="T83" s="91"/>
-      <c r="U83" s="91"/>
-      <c r="V83" s="91"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
+      <c r="S83" s="112"/>
+      <c r="T83" s="112"/>
+      <c r="U83" s="112"/>
+      <c r="V83" s="112"/>
+      <c r="W83" s="112"/>
+      <c r="X83" s="112"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="3"/>
@@ -7279,112 +7278,112 @@
       <c r="X121" s="18"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="107" t="s">
+      <c r="A122" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="107"/>
-      <c r="C122" s="107"/>
-      <c r="D122" s="107"/>
-      <c r="E122" s="105" t="s">
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105" t="s">
+      <c r="F122" s="90"/>
+      <c r="G122" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="105"/>
-      <c r="I122" s="105"/>
-      <c r="J122" s="90" t="s">
+      <c r="H122" s="90"/>
+      <c r="I122" s="90"/>
+      <c r="J122" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="90"/>
-      <c r="L122" s="105" t="s">
+      <c r="K122" s="106"/>
+      <c r="L122" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="105"/>
-      <c r="N122" s="105"/>
-      <c r="O122" s="105"/>
-      <c r="P122" s="90" t="s">
+      <c r="M122" s="90"/>
+      <c r="N122" s="90"/>
+      <c r="O122" s="90"/>
+      <c r="P122" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q122" s="90"/>
-      <c r="R122" s="105" t="s">
+      <c r="Q122" s="106"/>
+      <c r="R122" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="S122" s="105"/>
-      <c r="T122" s="105"/>
-      <c r="U122" s="92" t="s">
+      <c r="S122" s="90"/>
+      <c r="T122" s="90"/>
+      <c r="U122" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="V122" s="92"/>
-      <c r="W122" s="98">
+      <c r="V122" s="107"/>
+      <c r="W122" s="118">
         <v>45026</v>
       </c>
-      <c r="X122" s="91"/>
+      <c r="X122" s="112"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="107"/>
-      <c r="B123" s="107"/>
-      <c r="C123" s="107"/>
-      <c r="D123" s="107"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="105"/>
-      <c r="I123" s="105"/>
-      <c r="J123" s="90"/>
-      <c r="K123" s="90"/>
-      <c r="L123" s="105"/>
-      <c r="M123" s="105"/>
-      <c r="N123" s="105"/>
-      <c r="O123" s="105"/>
-      <c r="P123" s="90" t="s">
+      <c r="A123" s="105"/>
+      <c r="B123" s="105"/>
+      <c r="C123" s="105"/>
+      <c r="D123" s="105"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+      <c r="J123" s="106"/>
+      <c r="K123" s="106"/>
+      <c r="L123" s="90"/>
+      <c r="M123" s="90"/>
+      <c r="N123" s="90"/>
+      <c r="O123" s="90"/>
+      <c r="P123" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="Q123" s="90"/>
-      <c r="R123" s="91"/>
-      <c r="S123" s="91"/>
-      <c r="T123" s="91"/>
-      <c r="U123" s="92" t="s">
+      <c r="Q123" s="106"/>
+      <c r="R123" s="112"/>
+      <c r="S123" s="112"/>
+      <c r="T123" s="112"/>
+      <c r="U123" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V123" s="92"/>
-      <c r="W123" s="91"/>
-      <c r="X123" s="91"/>
+      <c r="V123" s="107"/>
+      <c r="W123" s="112"/>
+      <c r="X123" s="112"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="107"/>
-      <c r="B124" s="107"/>
-      <c r="C124" s="107"/>
-      <c r="D124" s="107"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="90" t="s">
+      <c r="A124" s="105"/>
+      <c r="B124" s="105"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="105"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="90"/>
+      <c r="H124" s="90"/>
+      <c r="I124" s="90"/>
+      <c r="J124" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="90"/>
-      <c r="L124" s="91" t="s">
+      <c r="K124" s="106"/>
+      <c r="L124" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M124" s="91"/>
-      <c r="N124" s="91"/>
-      <c r="O124" s="91"/>
-      <c r="P124" s="92" t="s">
+      <c r="M124" s="112"/>
+      <c r="N124" s="112"/>
+      <c r="O124" s="112"/>
+      <c r="P124" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q124" s="92"/>
-      <c r="R124" s="91" t="s">
+      <c r="Q124" s="107"/>
+      <c r="R124" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="S124" s="91"/>
-      <c r="T124" s="91"/>
-      <c r="U124" s="91"/>
-      <c r="V124" s="91"/>
-      <c r="W124" s="91"/>
-      <c r="X124" s="91"/>
+      <c r="S124" s="112"/>
+      <c r="T124" s="112"/>
+      <c r="U124" s="112"/>
+      <c r="V124" s="112"/>
+      <c r="W124" s="112"/>
+      <c r="X124" s="112"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="3"/>
@@ -7640,31 +7639,31 @@
       <c r="C148" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D148" s="96" t="s">
+      <c r="D148" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="E148" s="96"/>
-      <c r="F148" s="96" t="s">
+      <c r="E148" s="100"/>
+      <c r="F148" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="G148" s="96"/>
-      <c r="H148" s="96"/>
-      <c r="I148" s="96"/>
-      <c r="J148" s="96"/>
+      <c r="G148" s="100"/>
+      <c r="H148" s="100"/>
+      <c r="I148" s="100"/>
+      <c r="J148" s="100"/>
       <c r="K148" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L148" s="121" t="s">
+      <c r="L148" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="M148" s="122"/>
-      <c r="N148" s="122"/>
-      <c r="O148" s="122"/>
-      <c r="P148" s="122"/>
-      <c r="Q148" s="122"/>
-      <c r="R148" s="122"/>
-      <c r="S148" s="122"/>
-      <c r="T148" s="123"/>
+      <c r="M148" s="102"/>
+      <c r="N148" s="102"/>
+      <c r="O148" s="102"/>
+      <c r="P148" s="102"/>
+      <c r="Q148" s="102"/>
+      <c r="R148" s="102"/>
+      <c r="S148" s="102"/>
+      <c r="T148" s="103"/>
       <c r="X148" s="8"/>
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
@@ -7672,31 +7671,31 @@
       <c r="C149" s="54">
         <v>1</v>
       </c>
-      <c r="D149" s="124" t="s">
+      <c r="D149" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E149" s="124"/>
-      <c r="F149" s="125" t="s">
+      <c r="E149" s="104"/>
+      <c r="F149" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="G149" s="126"/>
-      <c r="H149" s="125" t="s">
+      <c r="G149" s="92"/>
+      <c r="H149" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="I149" s="127"/>
-      <c r="J149" s="126"/>
+      <c r="I149" s="93"/>
+      <c r="J149" s="92"/>
       <c r="K149" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L149" s="93"/>
-      <c r="M149" s="94"/>
-      <c r="N149" s="94"/>
-      <c r="O149" s="94"/>
-      <c r="P149" s="94"/>
-      <c r="Q149" s="94"/>
-      <c r="R149" s="94"/>
-      <c r="S149" s="94"/>
-      <c r="T149" s="95"/>
+      <c r="L149" s="87"/>
+      <c r="M149" s="88"/>
+      <c r="N149" s="88"/>
+      <c r="O149" s="88"/>
+      <c r="P149" s="88"/>
+      <c r="Q149" s="88"/>
+      <c r="R149" s="88"/>
+      <c r="S149" s="88"/>
+      <c r="T149" s="89"/>
       <c r="X149" s="8"/>
     </row>
     <row r="150" spans="1:24" ht="15.75" thickBot="1">
@@ -7704,31 +7703,31 @@
       <c r="C150" s="1">
         <v>2</v>
       </c>
-      <c r="D150" s="105" t="s">
+      <c r="D150" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E150" s="105"/>
-      <c r="F150" s="93" t="s">
+      <c r="E150" s="90"/>
+      <c r="F150" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="G150" s="95"/>
-      <c r="H150" s="93" t="s">
+      <c r="G150" s="89"/>
+      <c r="H150" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="I150" s="94"/>
-      <c r="J150" s="95"/>
+      <c r="I150" s="88"/>
+      <c r="J150" s="89"/>
       <c r="K150" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L150" s="93"/>
-      <c r="M150" s="94"/>
-      <c r="N150" s="94"/>
-      <c r="O150" s="94"/>
-      <c r="P150" s="94"/>
-      <c r="Q150" s="94"/>
-      <c r="R150" s="94"/>
-      <c r="S150" s="94"/>
-      <c r="T150" s="95"/>
+      <c r="L150" s="87"/>
+      <c r="M150" s="88"/>
+      <c r="N150" s="88"/>
+      <c r="O150" s="88"/>
+      <c r="P150" s="88"/>
+      <c r="Q150" s="88"/>
+      <c r="R150" s="88"/>
+      <c r="S150" s="88"/>
+      <c r="T150" s="89"/>
       <c r="X150" s="8"/>
     </row>
     <row r="151" spans="1:24" ht="15.75" thickBot="1">
@@ -7736,207 +7735,207 @@
       <c r="C151" s="1">
         <v>3</v>
       </c>
-      <c r="D151" s="105" t="s">
+      <c r="D151" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="105"/>
-      <c r="F151" s="93" t="s">
+      <c r="E151" s="90"/>
+      <c r="F151" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="G151" s="95"/>
-      <c r="H151" s="93" t="s">
+      <c r="G151" s="89"/>
+      <c r="H151" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="I151" s="94"/>
-      <c r="J151" s="95"/>
+      <c r="I151" s="88"/>
+      <c r="J151" s="89"/>
       <c r="K151" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L151" s="93"/>
-      <c r="M151" s="94"/>
-      <c r="N151" s="94"/>
-      <c r="O151" s="94"/>
-      <c r="P151" s="94"/>
-      <c r="Q151" s="94"/>
-      <c r="R151" s="94"/>
-      <c r="S151" s="94"/>
-      <c r="T151" s="95"/>
+      <c r="L151" s="87"/>
+      <c r="M151" s="88"/>
+      <c r="N151" s="88"/>
+      <c r="O151" s="88"/>
+      <c r="P151" s="88"/>
+      <c r="Q151" s="88"/>
+      <c r="R151" s="88"/>
+      <c r="S151" s="88"/>
+      <c r="T151" s="89"/>
       <c r="X151" s="8"/>
     </row>
     <row r="152" spans="1:24" ht="15.75" thickBot="1">
       <c r="A152" s="6"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="105"/>
-      <c r="E152" s="105"/>
-      <c r="F152" s="93"/>
-      <c r="G152" s="95"/>
-      <c r="H152" s="93"/>
-      <c r="I152" s="94"/>
-      <c r="J152" s="95"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="87"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="87"/>
+      <c r="I152" s="88"/>
+      <c r="J152" s="89"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="93"/>
-      <c r="M152" s="94"/>
-      <c r="N152" s="94"/>
-      <c r="O152" s="94"/>
-      <c r="P152" s="94"/>
-      <c r="Q152" s="94"/>
-      <c r="R152" s="94"/>
-      <c r="S152" s="94"/>
-      <c r="T152" s="95"/>
+      <c r="L152" s="87"/>
+      <c r="M152" s="88"/>
+      <c r="N152" s="88"/>
+      <c r="O152" s="88"/>
+      <c r="P152" s="88"/>
+      <c r="Q152" s="88"/>
+      <c r="R152" s="88"/>
+      <c r="S152" s="88"/>
+      <c r="T152" s="89"/>
       <c r="X152" s="8"/>
     </row>
     <row r="153" spans="1:24" ht="15.75" thickBot="1">
       <c r="A153" s="6"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="105"/>
-      <c r="E153" s="105"/>
-      <c r="F153" s="93"/>
-      <c r="G153" s="95"/>
-      <c r="H153" s="93"/>
-      <c r="I153" s="94"/>
-      <c r="J153" s="95"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="87"/>
+      <c r="G153" s="89"/>
+      <c r="H153" s="87"/>
+      <c r="I153" s="88"/>
+      <c r="J153" s="89"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="93"/>
-      <c r="M153" s="94"/>
-      <c r="N153" s="94"/>
-      <c r="O153" s="94"/>
-      <c r="P153" s="94"/>
-      <c r="Q153" s="94"/>
-      <c r="R153" s="94"/>
-      <c r="S153" s="94"/>
-      <c r="T153" s="95"/>
+      <c r="L153" s="87"/>
+      <c r="M153" s="88"/>
+      <c r="N153" s="88"/>
+      <c r="O153" s="88"/>
+      <c r="P153" s="88"/>
+      <c r="Q153" s="88"/>
+      <c r="R153" s="88"/>
+      <c r="S153" s="88"/>
+      <c r="T153" s="89"/>
       <c r="X153" s="8"/>
     </row>
     <row r="154" spans="1:24" ht="15.75" thickBot="1">
       <c r="A154" s="6"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="105"/>
-      <c r="E154" s="105"/>
-      <c r="F154" s="93"/>
-      <c r="G154" s="95"/>
-      <c r="H154" s="93"/>
-      <c r="I154" s="94"/>
-      <c r="J154" s="95"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="87"/>
+      <c r="G154" s="89"/>
+      <c r="H154" s="87"/>
+      <c r="I154" s="88"/>
+      <c r="J154" s="89"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="93"/>
-      <c r="M154" s="94"/>
-      <c r="N154" s="94"/>
-      <c r="O154" s="94"/>
-      <c r="P154" s="94"/>
-      <c r="Q154" s="94"/>
-      <c r="R154" s="94"/>
-      <c r="S154" s="94"/>
-      <c r="T154" s="95"/>
+      <c r="L154" s="87"/>
+      <c r="M154" s="88"/>
+      <c r="N154" s="88"/>
+      <c r="O154" s="88"/>
+      <c r="P154" s="88"/>
+      <c r="Q154" s="88"/>
+      <c r="R154" s="88"/>
+      <c r="S154" s="88"/>
+      <c r="T154" s="89"/>
       <c r="X154" s="8"/>
     </row>
     <row r="155" spans="1:24" ht="15.75" thickBot="1">
       <c r="A155" s="6"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="105"/>
-      <c r="E155" s="105"/>
-      <c r="F155" s="93"/>
-      <c r="G155" s="95"/>
-      <c r="H155" s="93"/>
-      <c r="I155" s="94"/>
-      <c r="J155" s="95"/>
+      <c r="D155" s="90"/>
+      <c r="E155" s="90"/>
+      <c r="F155" s="87"/>
+      <c r="G155" s="89"/>
+      <c r="H155" s="87"/>
+      <c r="I155" s="88"/>
+      <c r="J155" s="89"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="93"/>
-      <c r="M155" s="94"/>
-      <c r="N155" s="94"/>
-      <c r="O155" s="94"/>
-      <c r="P155" s="94"/>
-      <c r="Q155" s="94"/>
-      <c r="R155" s="94"/>
-      <c r="S155" s="94"/>
-      <c r="T155" s="95"/>
+      <c r="L155" s="87"/>
+      <c r="M155" s="88"/>
+      <c r="N155" s="88"/>
+      <c r="O155" s="88"/>
+      <c r="P155" s="88"/>
+      <c r="Q155" s="88"/>
+      <c r="R155" s="88"/>
+      <c r="S155" s="88"/>
+      <c r="T155" s="89"/>
       <c r="X155" s="8"/>
     </row>
     <row r="156" spans="1:24" ht="15.75" thickBot="1">
       <c r="A156" s="6"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="105"/>
-      <c r="E156" s="105"/>
-      <c r="F156" s="93"/>
-      <c r="G156" s="95"/>
-      <c r="H156" s="93"/>
-      <c r="I156" s="94"/>
-      <c r="J156" s="95"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="87"/>
+      <c r="G156" s="89"/>
+      <c r="H156" s="87"/>
+      <c r="I156" s="88"/>
+      <c r="J156" s="89"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="93"/>
-      <c r="M156" s="94"/>
-      <c r="N156" s="94"/>
-      <c r="O156" s="94"/>
-      <c r="P156" s="94"/>
-      <c r="Q156" s="94"/>
-      <c r="R156" s="94"/>
-      <c r="S156" s="94"/>
-      <c r="T156" s="95"/>
+      <c r="L156" s="87"/>
+      <c r="M156" s="88"/>
+      <c r="N156" s="88"/>
+      <c r="O156" s="88"/>
+      <c r="P156" s="88"/>
+      <c r="Q156" s="88"/>
+      <c r="R156" s="88"/>
+      <c r="S156" s="88"/>
+      <c r="T156" s="89"/>
       <c r="X156" s="8"/>
     </row>
     <row r="157" spans="1:24" ht="15.75" thickBot="1">
       <c r="A157" s="6"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="105"/>
-      <c r="E157" s="105"/>
-      <c r="F157" s="93"/>
-      <c r="G157" s="95"/>
-      <c r="H157" s="93"/>
-      <c r="I157" s="94"/>
-      <c r="J157" s="95"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="87"/>
+      <c r="G157" s="89"/>
+      <c r="H157" s="87"/>
+      <c r="I157" s="88"/>
+      <c r="J157" s="89"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="93"/>
-      <c r="M157" s="94"/>
-      <c r="N157" s="94"/>
-      <c r="O157" s="94"/>
-      <c r="P157" s="94"/>
-      <c r="Q157" s="94"/>
-      <c r="R157" s="94"/>
-      <c r="S157" s="94"/>
-      <c r="T157" s="95"/>
+      <c r="L157" s="87"/>
+      <c r="M157" s="88"/>
+      <c r="N157" s="88"/>
+      <c r="O157" s="88"/>
+      <c r="P157" s="88"/>
+      <c r="Q157" s="88"/>
+      <c r="R157" s="88"/>
+      <c r="S157" s="88"/>
+      <c r="T157" s="89"/>
       <c r="X157" s="8"/>
     </row>
     <row r="158" spans="1:24" ht="15.75" thickBot="1">
       <c r="A158" s="6"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="105"/>
-      <c r="E158" s="105"/>
-      <c r="F158" s="93"/>
-      <c r="G158" s="95"/>
-      <c r="H158" s="93"/>
-      <c r="I158" s="94"/>
-      <c r="J158" s="95"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="87"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="87"/>
+      <c r="I158" s="88"/>
+      <c r="J158" s="89"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="93"/>
-      <c r="M158" s="94"/>
-      <c r="N158" s="94"/>
-      <c r="O158" s="94"/>
-      <c r="P158" s="94"/>
-      <c r="Q158" s="94"/>
-      <c r="R158" s="94"/>
-      <c r="S158" s="94"/>
-      <c r="T158" s="95"/>
+      <c r="L158" s="87"/>
+      <c r="M158" s="88"/>
+      <c r="N158" s="88"/>
+      <c r="O158" s="88"/>
+      <c r="P158" s="88"/>
+      <c r="Q158" s="88"/>
+      <c r="R158" s="88"/>
+      <c r="S158" s="88"/>
+      <c r="T158" s="89"/>
       <c r="X158" s="8"/>
     </row>
     <row r="159" spans="1:24" ht="15.75" thickBot="1">
       <c r="A159" s="6"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="105"/>
-      <c r="E159" s="105"/>
-      <c r="F159" s="93"/>
-      <c r="G159" s="95"/>
-      <c r="H159" s="93"/>
-      <c r="I159" s="94"/>
-      <c r="J159" s="95"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="87"/>
+      <c r="G159" s="89"/>
+      <c r="H159" s="87"/>
+      <c r="I159" s="88"/>
+      <c r="J159" s="89"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="93"/>
-      <c r="M159" s="94"/>
-      <c r="N159" s="94"/>
-      <c r="O159" s="94"/>
-      <c r="P159" s="94"/>
-      <c r="Q159" s="94"/>
-      <c r="R159" s="94"/>
-      <c r="S159" s="94"/>
-      <c r="T159" s="95"/>
+      <c r="L159" s="87"/>
+      <c r="M159" s="88"/>
+      <c r="N159" s="88"/>
+      <c r="O159" s="88"/>
+      <c r="P159" s="88"/>
+      <c r="Q159" s="88"/>
+      <c r="R159" s="88"/>
+      <c r="S159" s="88"/>
+      <c r="T159" s="89"/>
       <c r="X159" s="8"/>
     </row>
     <row r="160" spans="1:24">
@@ -7956,192 +7955,391 @@
       <c r="X162" s="18"/>
     </row>
     <row r="163" spans="1:24">
-      <c r="A163" s="101"/>
-      <c r="B163" s="101"/>
-      <c r="C163" s="101"/>
-      <c r="D163" s="101"/>
-      <c r="E163" s="103"/>
-      <c r="F163" s="103"/>
-      <c r="G163" s="103"/>
-      <c r="H163" s="103"/>
-      <c r="I163" s="103"/>
-      <c r="J163" s="103"/>
-      <c r="K163" s="103"/>
-      <c r="L163" s="103"/>
-      <c r="M163" s="103"/>
-      <c r="N163" s="103"/>
-      <c r="O163" s="103"/>
-      <c r="P163" s="103"/>
-      <c r="Q163" s="103"/>
-      <c r="R163" s="103"/>
-      <c r="S163" s="103"/>
-      <c r="T163" s="103"/>
-      <c r="U163" s="104"/>
-      <c r="V163" s="104"/>
-      <c r="W163" s="89"/>
-      <c r="X163" s="88"/>
+      <c r="A163" s="123"/>
+      <c r="B163" s="123"/>
+      <c r="C163" s="123"/>
+      <c r="D163" s="123"/>
+      <c r="E163" s="124"/>
+      <c r="F163" s="124"/>
+      <c r="G163" s="124"/>
+      <c r="H163" s="124"/>
+      <c r="I163" s="124"/>
+      <c r="J163" s="124"/>
+      <c r="K163" s="124"/>
+      <c r="L163" s="124"/>
+      <c r="M163" s="124"/>
+      <c r="N163" s="124"/>
+      <c r="O163" s="124"/>
+      <c r="P163" s="124"/>
+      <c r="Q163" s="124"/>
+      <c r="R163" s="124"/>
+      <c r="S163" s="124"/>
+      <c r="T163" s="124"/>
+      <c r="U163" s="125"/>
+      <c r="V163" s="125"/>
+      <c r="W163" s="126"/>
+      <c r="X163" s="111"/>
     </row>
     <row r="164" spans="1:24">
-      <c r="A164" s="102"/>
-      <c r="B164" s="102"/>
-      <c r="C164" s="102"/>
-      <c r="D164" s="102"/>
-      <c r="E164" s="87"/>
-      <c r="F164" s="87"/>
-      <c r="G164" s="87"/>
-      <c r="H164" s="87"/>
-      <c r="I164" s="87"/>
-      <c r="J164" s="87"/>
-      <c r="K164" s="87"/>
-      <c r="L164" s="87"/>
-      <c r="M164" s="87"/>
-      <c r="N164" s="87"/>
-      <c r="O164" s="87"/>
-      <c r="P164" s="87"/>
-      <c r="Q164" s="87"/>
-      <c r="R164" s="88"/>
-      <c r="S164" s="88"/>
-      <c r="T164" s="88"/>
-      <c r="U164" s="88"/>
-      <c r="V164" s="88"/>
-      <c r="W164" s="88"/>
-      <c r="X164" s="88"/>
+      <c r="A164" s="121"/>
+      <c r="B164" s="121"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="121"/>
+      <c r="E164" s="122"/>
+      <c r="F164" s="122"/>
+      <c r="G164" s="122"/>
+      <c r="H164" s="122"/>
+      <c r="I164" s="122"/>
+      <c r="J164" s="122"/>
+      <c r="K164" s="122"/>
+      <c r="L164" s="122"/>
+      <c r="M164" s="122"/>
+      <c r="N164" s="122"/>
+      <c r="O164" s="122"/>
+      <c r="P164" s="122"/>
+      <c r="Q164" s="122"/>
+      <c r="R164" s="111"/>
+      <c r="S164" s="111"/>
+      <c r="T164" s="111"/>
+      <c r="U164" s="111"/>
+      <c r="V164" s="111"/>
+      <c r="W164" s="111"/>
+      <c r="X164" s="111"/>
     </row>
     <row r="165" spans="1:24">
-      <c r="A165" s="102"/>
-      <c r="B165" s="102"/>
-      <c r="C165" s="102"/>
-      <c r="D165" s="102"/>
-      <c r="E165" s="87"/>
-      <c r="F165" s="87"/>
-      <c r="G165" s="87"/>
-      <c r="H165" s="87"/>
-      <c r="I165" s="87"/>
-      <c r="J165" s="87"/>
-      <c r="K165" s="87"/>
-      <c r="L165" s="88"/>
-      <c r="M165" s="88"/>
-      <c r="N165" s="88"/>
-      <c r="O165" s="88"/>
-      <c r="P165" s="88"/>
-      <c r="Q165" s="88"/>
-      <c r="R165" s="88"/>
-      <c r="S165" s="88"/>
-      <c r="T165" s="88"/>
-      <c r="U165" s="88"/>
-      <c r="V165" s="88"/>
-      <c r="W165" s="88"/>
-      <c r="X165" s="88"/>
+      <c r="A165" s="121"/>
+      <c r="B165" s="121"/>
+      <c r="C165" s="121"/>
+      <c r="D165" s="121"/>
+      <c r="E165" s="122"/>
+      <c r="F165" s="122"/>
+      <c r="G165" s="122"/>
+      <c r="H165" s="122"/>
+      <c r="I165" s="122"/>
+      <c r="J165" s="122"/>
+      <c r="K165" s="122"/>
+      <c r="L165" s="111"/>
+      <c r="M165" s="111"/>
+      <c r="N165" s="111"/>
+      <c r="O165" s="111"/>
+      <c r="P165" s="111"/>
+      <c r="Q165" s="111"/>
+      <c r="R165" s="111"/>
+      <c r="S165" s="111"/>
+      <c r="T165" s="111"/>
+      <c r="U165" s="111"/>
+      <c r="V165" s="111"/>
+      <c r="W165" s="111"/>
+      <c r="X165" s="111"/>
     </row>
     <row r="204" spans="1:24">
-      <c r="A204" s="102"/>
-      <c r="B204" s="102"/>
-      <c r="C204" s="102"/>
-      <c r="D204" s="102"/>
-      <c r="E204" s="87"/>
-      <c r="F204" s="87"/>
-      <c r="G204" s="87"/>
-      <c r="H204" s="87"/>
-      <c r="I204" s="87"/>
-      <c r="J204" s="87"/>
-      <c r="K204" s="87"/>
-      <c r="L204" s="87"/>
-      <c r="M204" s="87"/>
-      <c r="N204" s="87"/>
-      <c r="O204" s="87"/>
-      <c r="P204" s="87"/>
-      <c r="Q204" s="87"/>
-      <c r="R204" s="87"/>
-      <c r="S204" s="87"/>
-      <c r="T204" s="87"/>
-      <c r="U204" s="88"/>
-      <c r="V204" s="88"/>
-      <c r="W204" s="89"/>
-      <c r="X204" s="88"/>
+      <c r="A204" s="121"/>
+      <c r="B204" s="121"/>
+      <c r="C204" s="121"/>
+      <c r="D204" s="121"/>
+      <c r="E204" s="122"/>
+      <c r="F204" s="122"/>
+      <c r="G204" s="122"/>
+      <c r="H204" s="122"/>
+      <c r="I204" s="122"/>
+      <c r="J204" s="122"/>
+      <c r="K204" s="122"/>
+      <c r="L204" s="122"/>
+      <c r="M204" s="122"/>
+      <c r="N204" s="122"/>
+      <c r="O204" s="122"/>
+      <c r="P204" s="122"/>
+      <c r="Q204" s="122"/>
+      <c r="R204" s="122"/>
+      <c r="S204" s="122"/>
+      <c r="T204" s="122"/>
+      <c r="U204" s="111"/>
+      <c r="V204" s="111"/>
+      <c r="W204" s="126"/>
+      <c r="X204" s="111"/>
     </row>
     <row r="205" spans="1:24">
-      <c r="A205" s="102"/>
-      <c r="B205" s="102"/>
-      <c r="C205" s="102"/>
-      <c r="D205" s="102"/>
-      <c r="E205" s="87"/>
-      <c r="F205" s="87"/>
-      <c r="G205" s="87"/>
-      <c r="H205" s="87"/>
-      <c r="I205" s="87"/>
-      <c r="J205" s="87"/>
-      <c r="K205" s="87"/>
-      <c r="L205" s="87"/>
-      <c r="M205" s="87"/>
-      <c r="N205" s="87"/>
-      <c r="O205" s="87"/>
-      <c r="P205" s="87"/>
-      <c r="Q205" s="87"/>
-      <c r="R205" s="88"/>
-      <c r="S205" s="88"/>
-      <c r="T205" s="88"/>
-      <c r="U205" s="88"/>
-      <c r="V205" s="88"/>
-      <c r="W205" s="88"/>
-      <c r="X205" s="88"/>
+      <c r="A205" s="121"/>
+      <c r="B205" s="121"/>
+      <c r="C205" s="121"/>
+      <c r="D205" s="121"/>
+      <c r="E205" s="122"/>
+      <c r="F205" s="122"/>
+      <c r="G205" s="122"/>
+      <c r="H205" s="122"/>
+      <c r="I205" s="122"/>
+      <c r="J205" s="122"/>
+      <c r="K205" s="122"/>
+      <c r="L205" s="122"/>
+      <c r="M205" s="122"/>
+      <c r="N205" s="122"/>
+      <c r="O205" s="122"/>
+      <c r="P205" s="122"/>
+      <c r="Q205" s="122"/>
+      <c r="R205" s="111"/>
+      <c r="S205" s="111"/>
+      <c r="T205" s="111"/>
+      <c r="U205" s="111"/>
+      <c r="V205" s="111"/>
+      <c r="W205" s="111"/>
+      <c r="X205" s="111"/>
     </row>
     <row r="206" spans="1:24">
-      <c r="A206" s="102"/>
-      <c r="B206" s="102"/>
-      <c r="C206" s="102"/>
-      <c r="D206" s="102"/>
-      <c r="E206" s="87"/>
-      <c r="F206" s="87"/>
-      <c r="G206" s="87"/>
-      <c r="H206" s="87"/>
-      <c r="I206" s="87"/>
-      <c r="J206" s="87"/>
-      <c r="K206" s="87"/>
-      <c r="L206" s="88"/>
-      <c r="M206" s="88"/>
-      <c r="N206" s="88"/>
-      <c r="O206" s="88"/>
-      <c r="P206" s="88"/>
-      <c r="Q206" s="88"/>
-      <c r="R206" s="88"/>
-      <c r="S206" s="88"/>
-      <c r="T206" s="88"/>
-      <c r="U206" s="88"/>
-      <c r="V206" s="88"/>
-      <c r="W206" s="88"/>
-      <c r="X206" s="88"/>
+      <c r="A206" s="121"/>
+      <c r="B206" s="121"/>
+      <c r="C206" s="121"/>
+      <c r="D206" s="121"/>
+      <c r="E206" s="122"/>
+      <c r="F206" s="122"/>
+      <c r="G206" s="122"/>
+      <c r="H206" s="122"/>
+      <c r="I206" s="122"/>
+      <c r="J206" s="122"/>
+      <c r="K206" s="122"/>
+      <c r="L206" s="111"/>
+      <c r="M206" s="111"/>
+      <c r="N206" s="111"/>
+      <c r="O206" s="111"/>
+      <c r="P206" s="111"/>
+      <c r="Q206" s="111"/>
+      <c r="R206" s="111"/>
+      <c r="S206" s="111"/>
+      <c r="T206" s="111"/>
+      <c r="U206" s="111"/>
+      <c r="V206" s="111"/>
+      <c r="W206" s="111"/>
+      <c r="X206" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="L153:T153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="L154:T154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="L155:T155"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="L159:T159"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="L204:O205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:O206"/>
+    <mergeCell ref="P206:Q206"/>
+    <mergeCell ref="R206:X206"/>
+    <mergeCell ref="W204:X204"/>
+    <mergeCell ref="P205:Q205"/>
+    <mergeCell ref="R205:T205"/>
+    <mergeCell ref="U205:V205"/>
+    <mergeCell ref="W205:X205"/>
+    <mergeCell ref="P204:Q204"/>
+    <mergeCell ref="R204:T204"/>
+    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="L156:T156"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="F47:K48"/>
+    <mergeCell ref="L47:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W81:X81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="W82:X82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="L49:N50"/>
+    <mergeCell ref="A163:D165"/>
+    <mergeCell ref="E163:F165"/>
+    <mergeCell ref="G163:I165"/>
+    <mergeCell ref="J163:K164"/>
+    <mergeCell ref="L163:O164"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="R163:T163"/>
+    <mergeCell ref="U163:V163"/>
+    <mergeCell ref="W163:X163"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="R164:T164"/>
+    <mergeCell ref="U164:V164"/>
+    <mergeCell ref="W164:X164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="R165:X165"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="E204:F206"/>
+    <mergeCell ref="G204:I206"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L150:T150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="L151:T151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="L152:T152"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="L157:T157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="L158:T158"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="U49:V50"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:X83"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E52"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="S51:T52"/>
+    <mergeCell ref="U51:V52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:E54"/>
+    <mergeCell ref="F53:K54"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="O53:P54"/>
+    <mergeCell ref="Q53:R54"/>
+    <mergeCell ref="S53:T54"/>
+    <mergeCell ref="U53:V54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="A40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:I42"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="L40:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:X42"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="A4:X12"/>
+    <mergeCell ref="G13:S17"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C55:E56"/>
+    <mergeCell ref="F55:K56"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="S55:T56"/>
+    <mergeCell ref="U55:V56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="F57:K58"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="O57:P58"/>
+    <mergeCell ref="Q57:R58"/>
+    <mergeCell ref="S57:T58"/>
+    <mergeCell ref="U57:V58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:K60"/>
+    <mergeCell ref="L59:N60"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="S59:T60"/>
+    <mergeCell ref="U59:V60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="F61:K62"/>
+    <mergeCell ref="L61:N62"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S61:T62"/>
+    <mergeCell ref="U61:V62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="F63:K64"/>
+    <mergeCell ref="L63:N64"/>
+    <mergeCell ref="O63:P64"/>
+    <mergeCell ref="Q63:R64"/>
+    <mergeCell ref="S63:T64"/>
+    <mergeCell ref="U63:V64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:E66"/>
+    <mergeCell ref="F65:K66"/>
+    <mergeCell ref="L65:N66"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="S65:T66"/>
+    <mergeCell ref="U65:V66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="F67:K68"/>
+    <mergeCell ref="L67:N68"/>
+    <mergeCell ref="O67:P68"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="S67:T68"/>
+    <mergeCell ref="U67:V68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="F69:K70"/>
+    <mergeCell ref="L69:N70"/>
+    <mergeCell ref="O69:P70"/>
+    <mergeCell ref="Q69:R70"/>
+    <mergeCell ref="S69:T70"/>
+    <mergeCell ref="U69:V70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:K72"/>
+    <mergeCell ref="L71:N72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="Q71:R72"/>
+    <mergeCell ref="S71:T72"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="F73:K74"/>
+    <mergeCell ref="L73:N74"/>
+    <mergeCell ref="O73:P74"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="S73:T74"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="S75:T76"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L77:N78"/>
+    <mergeCell ref="O77:P78"/>
+    <mergeCell ref="Q77:R78"/>
+    <mergeCell ref="S77:T78"/>
+    <mergeCell ref="U77:V78"/>
     <mergeCell ref="O47:R47"/>
     <mergeCell ref="S47:V47"/>
     <mergeCell ref="D148:E148"/>
@@ -8166,234 +8364,35 @@
     <mergeCell ref="L75:N76"/>
     <mergeCell ref="O75:P76"/>
     <mergeCell ref="Q75:R76"/>
-    <mergeCell ref="S75:T76"/>
-    <mergeCell ref="U75:V76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L77:N78"/>
-    <mergeCell ref="O77:P78"/>
-    <mergeCell ref="Q77:R78"/>
-    <mergeCell ref="S77:T78"/>
-    <mergeCell ref="U77:V78"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:K72"/>
-    <mergeCell ref="L71:N72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="Q71:R72"/>
-    <mergeCell ref="S71:T72"/>
-    <mergeCell ref="U71:V72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:E74"/>
-    <mergeCell ref="F73:K74"/>
-    <mergeCell ref="L73:N74"/>
-    <mergeCell ref="O73:P74"/>
-    <mergeCell ref="Q73:R74"/>
-    <mergeCell ref="S73:T74"/>
-    <mergeCell ref="U73:V74"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="F67:K68"/>
-    <mergeCell ref="L67:N68"/>
-    <mergeCell ref="O67:P68"/>
-    <mergeCell ref="Q67:R68"/>
-    <mergeCell ref="S67:T68"/>
-    <mergeCell ref="U67:V68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:E70"/>
-    <mergeCell ref="F69:K70"/>
-    <mergeCell ref="L69:N70"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="Q69:R70"/>
-    <mergeCell ref="S69:T70"/>
-    <mergeCell ref="U69:V70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="F63:K64"/>
-    <mergeCell ref="L63:N64"/>
-    <mergeCell ref="O63:P64"/>
-    <mergeCell ref="Q63:R64"/>
-    <mergeCell ref="S63:T64"/>
-    <mergeCell ref="U63:V64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:E66"/>
-    <mergeCell ref="F65:K66"/>
-    <mergeCell ref="L65:N66"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="S65:T66"/>
-    <mergeCell ref="U65:V66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="F59:K60"/>
-    <mergeCell ref="L59:N60"/>
-    <mergeCell ref="O59:P60"/>
-    <mergeCell ref="Q59:R60"/>
-    <mergeCell ref="S59:T60"/>
-    <mergeCell ref="U59:V60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="F61:K62"/>
-    <mergeCell ref="L61:N62"/>
-    <mergeCell ref="O61:P62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="S61:T62"/>
-    <mergeCell ref="U61:V62"/>
-    <mergeCell ref="C55:E56"/>
-    <mergeCell ref="F55:K56"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="Q55:R56"/>
-    <mergeCell ref="S55:T56"/>
-    <mergeCell ref="U55:V56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="F57:K58"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="O57:P58"/>
-    <mergeCell ref="Q57:R58"/>
-    <mergeCell ref="S57:T58"/>
-    <mergeCell ref="U57:V58"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="A4:X12"/>
-    <mergeCell ref="G13:S17"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="A40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:I42"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="L40:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:X42"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="U49:V50"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:X83"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E52"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="S51:T52"/>
-    <mergeCell ref="U51:V52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="F53:K54"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="O53:P54"/>
-    <mergeCell ref="Q53:R54"/>
-    <mergeCell ref="S53:T54"/>
-    <mergeCell ref="U53:V54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="E204:F206"/>
-    <mergeCell ref="G204:I206"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="L150:T150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="L151:T151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="L152:T152"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="L157:T157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="L158:T158"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A163:D165"/>
-    <mergeCell ref="E163:F165"/>
-    <mergeCell ref="G163:I165"/>
-    <mergeCell ref="J163:K164"/>
-    <mergeCell ref="L163:O164"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="R163:T163"/>
-    <mergeCell ref="U163:V163"/>
-    <mergeCell ref="W163:X163"/>
-    <mergeCell ref="P164:Q164"/>
-    <mergeCell ref="R164:T164"/>
-    <mergeCell ref="U164:V164"/>
-    <mergeCell ref="W164:X164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="P165:Q165"/>
-    <mergeCell ref="R165:X165"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="L156:T156"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="F47:K48"/>
-    <mergeCell ref="L47:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W81:X81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="W82:X82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="L49:N50"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="L204:O205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:O206"/>
-    <mergeCell ref="P206:Q206"/>
-    <mergeCell ref="R206:X206"/>
-    <mergeCell ref="W204:X204"/>
-    <mergeCell ref="P205:Q205"/>
-    <mergeCell ref="R205:T205"/>
-    <mergeCell ref="U205:V205"/>
-    <mergeCell ref="W205:X205"/>
-    <mergeCell ref="P204:Q204"/>
-    <mergeCell ref="R204:T204"/>
-    <mergeCell ref="U204:V204"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="L153:T153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="L154:T154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="L155:T155"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="L159:T159"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F157:G157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
@@ -8407,7 +8406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB225"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A51" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -8422,112 +8421,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="105" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="105" t="s">
+      <c r="K1" s="106"/>
+      <c r="L1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="90" t="s">
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="105" t="s">
+      <c r="Q1" s="106"/>
+      <c r="R1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="92" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="92"/>
-      <c r="W1" s="98">
+      <c r="V1" s="107"/>
+      <c r="W1" s="118">
         <v>45026</v>
       </c>
-      <c r="X1" s="91"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="90" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92" t="s">
+      <c r="Q2" s="106"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="90" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="91" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="3"/>
@@ -8703,112 +8702,112 @@
       <c r="X40" s="8"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="105" t="s">
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105" t="s">
+      <c r="F41" s="90"/>
+      <c r="G41" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="90" t="s">
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="90"/>
-      <c r="L41" s="105" t="s">
+      <c r="K41" s="106"/>
+      <c r="L41" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="90" t="s">
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="105" t="s">
+      <c r="Q41" s="106"/>
+      <c r="R41" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="S41" s="105"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="92" t="s">
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="V41" s="92"/>
-      <c r="W41" s="98">
+      <c r="V41" s="107"/>
+      <c r="W41" s="118">
         <v>45026</v>
       </c>
-      <c r="X41" s="91"/>
+      <c r="X41" s="112"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="90" t="s">
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="92" t="s">
+      <c r="Q42" s="106"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="92"/>
-      <c r="W42" s="91"/>
-      <c r="X42" s="91"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="112"/>
+      <c r="X42" s="112"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="90" t="s">
+      <c r="A43" s="105"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="90"/>
-      <c r="L43" s="91" t="s">
+      <c r="K43" s="106"/>
+      <c r="L43" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="92" t="s">
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="91" t="s">
+      <c r="Q43" s="107"/>
+      <c r="R43" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="S43" s="91"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="112"/>
+      <c r="V43" s="112"/>
+      <c r="W43" s="112"/>
+      <c r="X43" s="112"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="3"/>
@@ -8864,10 +8863,10 @@
       </c>
       <c r="D48" s="135"/>
       <c r="E48" s="135"/>
-      <c r="F48" s="136" t="s">
+      <c r="F48" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="136"/>
+      <c r="G48" s="134"/>
       <c r="H48" s="135" t="s">
         <v>50</v>
       </c>
@@ -8879,10 +8878,10 @@
       <c r="L48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="136" t="s">
+      <c r="M48" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="N48" s="136"/>
+      <c r="N48" s="134"/>
       <c r="O48" s="135" t="s">
         <v>53</v>
       </c>
@@ -8901,37 +8900,37 @@
       <c r="B49" s="11">
         <v>1</v>
       </c>
-      <c r="C49" s="137" t="s">
+      <c r="C49" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="134" t="s">
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134">
+      <c r="G49" s="131"/>
+      <c r="H49" s="131">
         <v>50</v>
       </c>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134" t="s">
+      <c r="I49" s="131"/>
+      <c r="J49" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K49" s="134"/>
+      <c r="K49" s="131"/>
       <c r="L49" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="134" t="s">
+      <c r="M49" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="N49" s="134"/>
-      <c r="O49" s="134"/>
-      <c r="P49" s="134"/>
-      <c r="Q49" s="134"/>
-      <c r="R49" s="134"/>
-      <c r="S49" s="134"/>
-      <c r="T49" s="134"/>
-      <c r="U49" s="134"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="131"/>
+      <c r="Q49" s="131"/>
+      <c r="R49" s="131"/>
+      <c r="S49" s="131"/>
+      <c r="T49" s="131"/>
+      <c r="U49" s="131"/>
       <c r="X49" s="8"/>
     </row>
     <row r="50" spans="1:24">
@@ -8986,31 +8985,31 @@
       <c r="B56" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="138" t="s">
+      <c r="C56" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="138"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138" t="s">
+      <c r="D56" s="168"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="168"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="168"/>
+      <c r="I56" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="138" t="s">
+      <c r="J56" s="168"/>
+      <c r="K56" s="168"/>
+      <c r="L56" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="M56" s="138"/>
-      <c r="N56" s="138"/>
-      <c r="O56" s="138"/>
-      <c r="P56" s="138"/>
-      <c r="Q56" s="138"/>
-      <c r="R56" s="138"/>
-      <c r="S56" s="138"/>
-      <c r="T56" s="138"/>
-      <c r="U56" s="138"/>
+      <c r="M56" s="168"/>
+      <c r="N56" s="168"/>
+      <c r="O56" s="168"/>
+      <c r="P56" s="168"/>
+      <c r="Q56" s="168"/>
+      <c r="R56" s="168"/>
+      <c r="S56" s="168"/>
+      <c r="T56" s="168"/>
+      <c r="U56" s="168"/>
       <c r="X56" s="8"/>
     </row>
     <row r="57" spans="1:24">
@@ -9018,29 +9017,29 @@
       <c r="B57" s="55">
         <v>1</v>
       </c>
-      <c r="C57" s="130" t="s">
+      <c r="C57" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="131" t="s">
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="J57" s="131"/>
-      <c r="K57" s="131"/>
-      <c r="L57" s="131"/>
-      <c r="M57" s="131"/>
-      <c r="N57" s="131"/>
-      <c r="O57" s="131"/>
-      <c r="P57" s="131"/>
-      <c r="Q57" s="131"/>
-      <c r="R57" s="131"/>
-      <c r="S57" s="131"/>
-      <c r="T57" s="131"/>
-      <c r="U57" s="131"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="133"/>
+      <c r="O57" s="133"/>
+      <c r="P57" s="133"/>
+      <c r="Q57" s="133"/>
+      <c r="R57" s="133"/>
+      <c r="S57" s="133"/>
+      <c r="T57" s="133"/>
+      <c r="U57" s="133"/>
       <c r="X57" s="8"/>
     </row>
     <row r="58" spans="1:24">
@@ -9048,29 +9047,29 @@
       <c r="B58" s="55">
         <v>2</v>
       </c>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="131" t="s">
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="J58" s="131"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
-      <c r="O58" s="131"/>
-      <c r="P58" s="131"/>
-      <c r="Q58" s="131"/>
-      <c r="R58" s="131"/>
-      <c r="S58" s="131"/>
-      <c r="T58" s="131"/>
-      <c r="U58" s="131"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
+      <c r="O58" s="133"/>
+      <c r="P58" s="133"/>
+      <c r="Q58" s="133"/>
+      <c r="R58" s="133"/>
+      <c r="S58" s="133"/>
+      <c r="T58" s="133"/>
+      <c r="U58" s="133"/>
       <c r="X58" s="8"/>
     </row>
     <row r="59" spans="1:24">
@@ -9078,29 +9077,29 @@
       <c r="B59" s="55">
         <v>3</v>
       </c>
-      <c r="C59" s="130" t="s">
+      <c r="C59" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="131" t="s">
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="J59" s="131"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
-      <c r="O59" s="131"/>
-      <c r="P59" s="131"/>
-      <c r="Q59" s="131"/>
-      <c r="R59" s="131"/>
-      <c r="S59" s="131"/>
-      <c r="T59" s="131"/>
-      <c r="U59" s="131"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="133"/>
+      <c r="O59" s="133"/>
+      <c r="P59" s="133"/>
+      <c r="Q59" s="133"/>
+      <c r="R59" s="133"/>
+      <c r="S59" s="133"/>
+      <c r="T59" s="133"/>
+      <c r="U59" s="133"/>
       <c r="X59" s="8"/>
     </row>
     <row r="60" spans="1:24">
@@ -9108,29 +9107,29 @@
       <c r="B60" s="55">
         <v>4</v>
       </c>
-      <c r="C60" s="130" t="s">
+      <c r="C60" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="131" t="s">
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="J60" s="131"/>
-      <c r="K60" s="131"/>
-      <c r="L60" s="131"/>
-      <c r="M60" s="131"/>
-      <c r="N60" s="131"/>
-      <c r="O60" s="131"/>
-      <c r="P60" s="131"/>
-      <c r="Q60" s="131"/>
-      <c r="R60" s="131"/>
-      <c r="S60" s="131"/>
-      <c r="T60" s="131"/>
-      <c r="U60" s="131"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="133"/>
+      <c r="Q60" s="133"/>
+      <c r="R60" s="133"/>
+      <c r="S60" s="133"/>
+      <c r="T60" s="133"/>
+      <c r="U60" s="133"/>
       <c r="X60" s="8"/>
     </row>
     <row r="61" spans="1:24">
@@ -9138,29 +9137,29 @@
       <c r="B61" s="55">
         <v>5</v>
       </c>
-      <c r="C61" s="130" t="s">
+      <c r="C61" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="131" t="s">
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="J61" s="131"/>
-      <c r="K61" s="131"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="131"/>
-      <c r="O61" s="131"/>
-      <c r="P61" s="131"/>
-      <c r="Q61" s="131"/>
-      <c r="R61" s="131"/>
-      <c r="S61" s="131"/>
-      <c r="T61" s="131"/>
-      <c r="U61" s="131"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="133"/>
+      <c r="O61" s="133"/>
+      <c r="P61" s="133"/>
+      <c r="Q61" s="133"/>
+      <c r="R61" s="133"/>
+      <c r="S61" s="133"/>
+      <c r="T61" s="133"/>
+      <c r="U61" s="133"/>
       <c r="X61" s="8"/>
     </row>
     <row r="62" spans="1:24">
@@ -9168,31 +9167,31 @@
       <c r="B62" s="55">
         <v>6</v>
       </c>
-      <c r="C62" s="130" t="s">
+      <c r="C62" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="131" t="s">
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="J62" s="131"/>
-      <c r="K62" s="131"/>
-      <c r="L62" s="131" t="s">
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="M62" s="131"/>
-      <c r="N62" s="131"/>
-      <c r="O62" s="131"/>
-      <c r="P62" s="131"/>
-      <c r="Q62" s="131"/>
-      <c r="R62" s="131"/>
-      <c r="S62" s="131"/>
-      <c r="T62" s="131"/>
-      <c r="U62" s="131"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="133"/>
+      <c r="O62" s="133"/>
+      <c r="P62" s="133"/>
+      <c r="Q62" s="133"/>
+      <c r="R62" s="133"/>
+      <c r="S62" s="133"/>
+      <c r="T62" s="133"/>
+      <c r="U62" s="133"/>
       <c r="X62" s="8"/>
     </row>
     <row r="63" spans="1:24">
@@ -9200,31 +9199,31 @@
       <c r="B63" s="55">
         <v>7</v>
       </c>
-      <c r="C63" s="130" t="s">
+      <c r="C63" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="131" t="s">
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="J63" s="131"/>
-      <c r="K63" s="131"/>
-      <c r="L63" s="131" t="s">
+      <c r="J63" s="133"/>
+      <c r="K63" s="133"/>
+      <c r="L63" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="131"/>
-      <c r="P63" s="131"/>
-      <c r="Q63" s="131"/>
-      <c r="R63" s="131"/>
-      <c r="S63" s="131"/>
-      <c r="T63" s="131"/>
-      <c r="U63" s="131"/>
+      <c r="M63" s="133"/>
+      <c r="N63" s="133"/>
+      <c r="O63" s="133"/>
+      <c r="P63" s="133"/>
+      <c r="Q63" s="133"/>
+      <c r="R63" s="133"/>
+      <c r="S63" s="133"/>
+      <c r="T63" s="133"/>
+      <c r="U63" s="133"/>
       <c r="X63" s="8"/>
     </row>
     <row r="64" spans="1:24">
@@ -9248,10 +9247,10 @@
       </c>
       <c r="D66" s="135"/>
       <c r="E66" s="135"/>
-      <c r="F66" s="136" t="s">
+      <c r="F66" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="136"/>
+      <c r="G66" s="134"/>
       <c r="H66" s="135" t="s">
         <v>50</v>
       </c>
@@ -9263,10 +9262,10 @@
       <c r="L66" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M66" s="136" t="s">
+      <c r="M66" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="N66" s="136"/>
+      <c r="N66" s="134"/>
       <c r="O66" s="135" t="s">
         <v>53</v>
       </c>
@@ -9285,37 +9284,37 @@
       <c r="B67" s="11">
         <v>1</v>
       </c>
-      <c r="C67" s="137" t="s">
+      <c r="C67" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="134" t="s">
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="G67" s="134"/>
-      <c r="H67" s="134">
+      <c r="G67" s="131"/>
+      <c r="H67" s="131">
         <v>50</v>
       </c>
-      <c r="I67" s="134"/>
-      <c r="J67" s="134" t="s">
+      <c r="I67" s="131"/>
+      <c r="J67" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K67" s="134"/>
+      <c r="K67" s="131"/>
       <c r="L67" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M67" s="134" t="s">
+      <c r="M67" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="134"/>
-      <c r="O67" s="134"/>
-      <c r="P67" s="134"/>
-      <c r="Q67" s="134"/>
-      <c r="R67" s="134"/>
-      <c r="S67" s="134"/>
-      <c r="T67" s="134"/>
-      <c r="U67" s="134"/>
+      <c r="N67" s="131"/>
+      <c r="O67" s="131"/>
+      <c r="P67" s="131"/>
+      <c r="Q67" s="131"/>
+      <c r="R67" s="131"/>
+      <c r="S67" s="131"/>
+      <c r="T67" s="131"/>
+      <c r="U67" s="131"/>
       <c r="X67" s="8"/>
     </row>
     <row r="68" spans="1:24">
@@ -9323,37 +9322,37 @@
       <c r="B68" s="11">
         <v>2</v>
       </c>
-      <c r="C68" s="137" t="s">
+      <c r="C68" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="134" t="s">
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="134"/>
-      <c r="H68" s="134">
+      <c r="G68" s="131"/>
+      <c r="H68" s="131">
         <v>51</v>
       </c>
-      <c r="I68" s="134"/>
-      <c r="J68" s="134" t="s">
+      <c r="I68" s="131"/>
+      <c r="J68" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="134"/>
+      <c r="K68" s="131"/>
       <c r="L68" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M68" s="134" t="s">
+      <c r="M68" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="N68" s="134"/>
-      <c r="O68" s="134"/>
-      <c r="P68" s="134"/>
-      <c r="Q68" s="134"/>
-      <c r="R68" s="134"/>
-      <c r="S68" s="134"/>
-      <c r="T68" s="134"/>
-      <c r="U68" s="134"/>
+      <c r="N68" s="131"/>
+      <c r="O68" s="131"/>
+      <c r="P68" s="131"/>
+      <c r="Q68" s="131"/>
+      <c r="R68" s="131"/>
+      <c r="S68" s="131"/>
+      <c r="T68" s="131"/>
+      <c r="U68" s="131"/>
       <c r="X68" s="8"/>
     </row>
     <row r="69" spans="1:24">
@@ -9361,37 +9360,37 @@
       <c r="B69" s="11">
         <v>3</v>
       </c>
-      <c r="C69" s="137" t="s">
+      <c r="C69" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="137"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="134" t="s">
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="G69" s="134"/>
-      <c r="H69" s="134">
+      <c r="G69" s="131"/>
+      <c r="H69" s="131">
         <v>52</v>
       </c>
-      <c r="I69" s="134"/>
-      <c r="J69" s="134" t="s">
+      <c r="I69" s="131"/>
+      <c r="J69" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K69" s="134"/>
+      <c r="K69" s="131"/>
       <c r="L69" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M69" s="134" t="s">
+      <c r="M69" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="N69" s="134"/>
-      <c r="O69" s="134"/>
-      <c r="P69" s="134"/>
-      <c r="Q69" s="134"/>
-      <c r="R69" s="134"/>
-      <c r="S69" s="134"/>
-      <c r="T69" s="134"/>
-      <c r="U69" s="134"/>
+      <c r="N69" s="131"/>
+      <c r="O69" s="131"/>
+      <c r="P69" s="131"/>
+      <c r="Q69" s="131"/>
+      <c r="R69" s="131"/>
+      <c r="S69" s="131"/>
+      <c r="T69" s="131"/>
+      <c r="U69" s="131"/>
       <c r="X69" s="8"/>
     </row>
     <row r="70" spans="1:24">
@@ -9399,37 +9398,37 @@
       <c r="B70" s="11">
         <v>4</v>
       </c>
-      <c r="C70" s="137" t="s">
+      <c r="C70" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="137"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="134" t="s">
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="G70" s="134"/>
-      <c r="H70" s="134">
+      <c r="G70" s="131"/>
+      <c r="H70" s="131">
         <v>53</v>
       </c>
-      <c r="I70" s="134"/>
-      <c r="J70" s="134" t="s">
+      <c r="I70" s="131"/>
+      <c r="J70" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K70" s="134"/>
+      <c r="K70" s="131"/>
       <c r="L70" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M70" s="134" t="s">
+      <c r="M70" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="N70" s="134"/>
-      <c r="O70" s="134"/>
-      <c r="P70" s="134"/>
-      <c r="Q70" s="134"/>
-      <c r="R70" s="134"/>
-      <c r="S70" s="134"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="134"/>
+      <c r="N70" s="131"/>
+      <c r="O70" s="131"/>
+      <c r="P70" s="131"/>
+      <c r="Q70" s="131"/>
+      <c r="R70" s="131"/>
+      <c r="S70" s="131"/>
+      <c r="T70" s="131"/>
+      <c r="U70" s="131"/>
       <c r="X70" s="8"/>
     </row>
     <row r="71" spans="1:24">
@@ -9437,37 +9436,37 @@
       <c r="B71" s="11">
         <v>5</v>
       </c>
-      <c r="C71" s="137" t="s">
+      <c r="C71" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="137"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="134" t="s">
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="134"/>
-      <c r="H71" s="134">
+      <c r="G71" s="131"/>
+      <c r="H71" s="131">
         <v>54</v>
       </c>
-      <c r="I71" s="134"/>
-      <c r="J71" s="134" t="s">
+      <c r="I71" s="131"/>
+      <c r="J71" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K71" s="134"/>
+      <c r="K71" s="131"/>
       <c r="L71" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M71" s="134" t="s">
+      <c r="M71" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="N71" s="134"/>
-      <c r="O71" s="134"/>
-      <c r="P71" s="134"/>
-      <c r="Q71" s="134"/>
-      <c r="R71" s="134"/>
-      <c r="S71" s="134"/>
-      <c r="T71" s="134"/>
-      <c r="U71" s="134"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="131"/>
+      <c r="P71" s="131"/>
+      <c r="Q71" s="131"/>
+      <c r="R71" s="131"/>
+      <c r="S71" s="131"/>
+      <c r="T71" s="131"/>
+      <c r="U71" s="131"/>
       <c r="X71" s="8"/>
     </row>
     <row r="72" spans="1:24">
@@ -9475,37 +9474,37 @@
       <c r="B72" s="11">
         <v>6</v>
       </c>
-      <c r="C72" s="137" t="s">
+      <c r="C72" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="134" t="s">
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="134"/>
-      <c r="H72" s="134">
+      <c r="G72" s="131"/>
+      <c r="H72" s="131">
         <v>55</v>
       </c>
-      <c r="I72" s="134"/>
-      <c r="J72" s="134" t="s">
+      <c r="I72" s="131"/>
+      <c r="J72" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K72" s="134"/>
+      <c r="K72" s="131"/>
       <c r="L72" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M72" s="134" t="s">
+      <c r="M72" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="N72" s="134"/>
-      <c r="O72" s="134"/>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="134"/>
-      <c r="R72" s="134"/>
-      <c r="S72" s="134"/>
-      <c r="T72" s="134"/>
-      <c r="U72" s="134"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="131"/>
+      <c r="P72" s="131"/>
+      <c r="Q72" s="131"/>
+      <c r="R72" s="131"/>
+      <c r="S72" s="131"/>
+      <c r="T72" s="131"/>
+      <c r="U72" s="131"/>
       <c r="X72" s="8"/>
     </row>
     <row r="73" spans="1:24">
@@ -9513,37 +9512,37 @@
       <c r="B73" s="55">
         <v>7</v>
       </c>
-      <c r="C73" s="130" t="s">
+      <c r="C73" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="D73" s="130"/>
-      <c r="E73" s="130"/>
-      <c r="F73" s="131" t="s">
+      <c r="D73" s="132"/>
+      <c r="E73" s="132"/>
+      <c r="F73" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="131"/>
-      <c r="H73" s="131">
+      <c r="G73" s="133"/>
+      <c r="H73" s="133">
         <v>56</v>
       </c>
-      <c r="I73" s="131"/>
-      <c r="J73" s="131" t="s">
+      <c r="I73" s="133"/>
+      <c r="J73" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="131"/>
+      <c r="K73" s="133"/>
       <c r="L73" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M73" s="131" t="s">
+      <c r="M73" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="N73" s="131"/>
-      <c r="O73" s="131"/>
-      <c r="P73" s="131"/>
-      <c r="Q73" s="131"/>
-      <c r="R73" s="131"/>
-      <c r="S73" s="131"/>
-      <c r="T73" s="131"/>
-      <c r="U73" s="131"/>
+      <c r="N73" s="133"/>
+      <c r="O73" s="133"/>
+      <c r="P73" s="133"/>
+      <c r="Q73" s="133"/>
+      <c r="R73" s="133"/>
+      <c r="S73" s="133"/>
+      <c r="T73" s="133"/>
+      <c r="U73" s="133"/>
       <c r="X73" s="8"/>
     </row>
     <row r="74" spans="1:24">
@@ -9575,112 +9574,112 @@
       <c r="X80" s="8"/>
     </row>
     <row r="81" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="105" t="s">
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105" t="s">
+      <c r="F81" s="90"/>
+      <c r="G81" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="105"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="90" t="s">
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="90"/>
-      <c r="L81" s="105" t="s">
+      <c r="K81" s="106"/>
+      <c r="L81" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
-      <c r="O81" s="105"/>
-      <c r="P81" s="90" t="s">
+      <c r="M81" s="90"/>
+      <c r="N81" s="90"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="Q81" s="90"/>
-      <c r="R81" s="105" t="s">
+      <c r="Q81" s="106"/>
+      <c r="R81" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="S81" s="105"/>
-      <c r="T81" s="105"/>
-      <c r="U81" s="92" t="s">
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="V81" s="92"/>
-      <c r="W81" s="98">
+      <c r="V81" s="107"/>
+      <c r="W81" s="118">
         <v>45026</v>
       </c>
-      <c r="X81" s="91"/>
+      <c r="X81" s="112"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A82" s="107"/>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
-      <c r="I82" s="105"/>
-      <c r="J82" s="90"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="105"/>
-      <c r="M82" s="105"/>
-      <c r="N82" s="105"/>
-      <c r="O82" s="105"/>
-      <c r="P82" s="90" t="s">
+      <c r="A82" s="105"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="90"/>
+      <c r="J82" s="106"/>
+      <c r="K82" s="106"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="90"/>
+      <c r="N82" s="90"/>
+      <c r="O82" s="90"/>
+      <c r="P82" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="90"/>
-      <c r="R82" s="91"/>
-      <c r="S82" s="91"/>
-      <c r="T82" s="91"/>
-      <c r="U82" s="92" t="s">
+      <c r="Q82" s="106"/>
+      <c r="R82" s="112"/>
+      <c r="S82" s="112"/>
+      <c r="T82" s="112"/>
+      <c r="U82" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V82" s="92"/>
-      <c r="W82" s="91"/>
-      <c r="X82" s="91"/>
+      <c r="V82" s="107"/>
+      <c r="W82" s="112"/>
+      <c r="X82" s="112"/>
     </row>
     <row r="83" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A83" s="107"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="90" t="s">
+      <c r="A83" s="105"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="90"/>
-      <c r="L83" s="91" t="s">
+      <c r="K83" s="106"/>
+      <c r="L83" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="92" t="s">
+      <c r="M83" s="112"/>
+      <c r="N83" s="112"/>
+      <c r="O83" s="112"/>
+      <c r="P83" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q83" s="92"/>
-      <c r="R83" s="91" t="s">
+      <c r="Q83" s="107"/>
+      <c r="R83" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="S83" s="91"/>
-      <c r="T83" s="91"/>
-      <c r="U83" s="91"/>
-      <c r="V83" s="91"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
+      <c r="S83" s="112"/>
+      <c r="T83" s="112"/>
+      <c r="U83" s="112"/>
+      <c r="V83" s="112"/>
+      <c r="W83" s="112"/>
+      <c r="X83" s="112"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3"/>
@@ -10253,112 +10252,112 @@
       <c r="X121" s="18"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A122" s="139" t="s">
+      <c r="A122" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="140"/>
-      <c r="C122" s="140"/>
-      <c r="D122" s="141"/>
-      <c r="E122" s="148" t="s">
+      <c r="B122" s="137"/>
+      <c r="C122" s="137"/>
+      <c r="D122" s="138"/>
+      <c r="E122" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="149"/>
-      <c r="G122" s="148" t="s">
+      <c r="F122" s="146"/>
+      <c r="G122" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="154"/>
-      <c r="I122" s="149"/>
-      <c r="J122" s="157" t="s">
+      <c r="H122" s="151"/>
+      <c r="I122" s="146"/>
+      <c r="J122" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="158"/>
-      <c r="L122" s="148" t="s">
+      <c r="K122" s="155"/>
+      <c r="L122" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="M122" s="154"/>
-      <c r="N122" s="154"/>
-      <c r="O122" s="149"/>
-      <c r="P122" s="161" t="s">
+      <c r="M122" s="151"/>
+      <c r="N122" s="151"/>
+      <c r="O122" s="146"/>
+      <c r="P122" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="Q122" s="162"/>
-      <c r="R122" s="163" t="s">
+      <c r="Q122" s="159"/>
+      <c r="R122" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="S122" s="164"/>
-      <c r="T122" s="165"/>
-      <c r="U122" s="166" t="s">
+      <c r="S122" s="161"/>
+      <c r="T122" s="162"/>
+      <c r="U122" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="V122" s="167"/>
-      <c r="W122" s="132">
+      <c r="V122" s="164"/>
+      <c r="W122" s="169">
         <v>45026</v>
       </c>
-      <c r="X122" s="133"/>
+      <c r="X122" s="170"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A123" s="142"/>
-      <c r="B123" s="143"/>
-      <c r="C123" s="143"/>
-      <c r="D123" s="144"/>
-      <c r="E123" s="150"/>
-      <c r="F123" s="151"/>
-      <c r="G123" s="150"/>
-      <c r="H123" s="155"/>
-      <c r="I123" s="151"/>
-      <c r="J123" s="159"/>
-      <c r="K123" s="160"/>
-      <c r="L123" s="152"/>
-      <c r="M123" s="156"/>
-      <c r="N123" s="156"/>
-      <c r="O123" s="153"/>
-      <c r="P123" s="161" t="s">
+      <c r="A123" s="139"/>
+      <c r="B123" s="140"/>
+      <c r="C123" s="140"/>
+      <c r="D123" s="141"/>
+      <c r="E123" s="147"/>
+      <c r="F123" s="148"/>
+      <c r="G123" s="147"/>
+      <c r="H123" s="152"/>
+      <c r="I123" s="148"/>
+      <c r="J123" s="156"/>
+      <c r="K123" s="157"/>
+      <c r="L123" s="149"/>
+      <c r="M123" s="153"/>
+      <c r="N123" s="153"/>
+      <c r="O123" s="150"/>
+      <c r="P123" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="Q123" s="162"/>
-      <c r="R123" s="128"/>
-      <c r="S123" s="168"/>
-      <c r="T123" s="129"/>
-      <c r="U123" s="166" t="s">
+      <c r="Q123" s="159"/>
+      <c r="R123" s="165"/>
+      <c r="S123" s="166"/>
+      <c r="T123" s="167"/>
+      <c r="U123" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="V123" s="167"/>
-      <c r="W123" s="128"/>
-      <c r="X123" s="129"/>
+      <c r="V123" s="164"/>
+      <c r="W123" s="165"/>
+      <c r="X123" s="167"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A124" s="145"/>
-      <c r="B124" s="146"/>
-      <c r="C124" s="146"/>
-      <c r="D124" s="147"/>
-      <c r="E124" s="152"/>
-      <c r="F124" s="153"/>
-      <c r="G124" s="152"/>
-      <c r="H124" s="156"/>
-      <c r="I124" s="153"/>
-      <c r="J124" s="161" t="s">
+      <c r="A124" s="142"/>
+      <c r="B124" s="143"/>
+      <c r="C124" s="143"/>
+      <c r="D124" s="144"/>
+      <c r="E124" s="149"/>
+      <c r="F124" s="150"/>
+      <c r="G124" s="149"/>
+      <c r="H124" s="153"/>
+      <c r="I124" s="150"/>
+      <c r="J124" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="K124" s="162"/>
-      <c r="L124" s="128" t="s">
+      <c r="K124" s="159"/>
+      <c r="L124" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="M124" s="168"/>
-      <c r="N124" s="168"/>
-      <c r="O124" s="129"/>
-      <c r="P124" s="166" t="s">
+      <c r="M124" s="166"/>
+      <c r="N124" s="166"/>
+      <c r="O124" s="167"/>
+      <c r="P124" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="Q124" s="167"/>
-      <c r="R124" s="128" t="s">
+      <c r="Q124" s="164"/>
+      <c r="R124" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="S124" s="168"/>
-      <c r="T124" s="168"/>
-      <c r="U124" s="168"/>
-      <c r="V124" s="168"/>
-      <c r="W124" s="168"/>
-      <c r="X124" s="129"/>
+      <c r="S124" s="166"/>
+      <c r="T124" s="166"/>
+      <c r="U124" s="166"/>
+      <c r="V124" s="166"/>
+      <c r="W124" s="166"/>
+      <c r="X124" s="167"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="19"/>
@@ -10780,23 +10779,23 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" s="19"/>
-      <c r="F150" s="169"/>
-      <c r="G150" s="169"/>
-      <c r="H150" s="169"/>
-      <c r="I150" s="87"/>
-      <c r="J150" s="87"/>
-      <c r="K150" s="87"/>
-      <c r="L150" s="87"/>
-      <c r="M150" s="87"/>
-      <c r="N150" s="87"/>
-      <c r="O150" s="87"/>
-      <c r="P150" s="87"/>
-      <c r="Q150" s="87"/>
-      <c r="R150" s="170"/>
-      <c r="S150" s="170"/>
-      <c r="T150" s="170"/>
-      <c r="U150" s="170"/>
-      <c r="V150" s="170"/>
+      <c r="F150" s="128"/>
+      <c r="G150" s="128"/>
+      <c r="H150" s="128"/>
+      <c r="I150" s="122"/>
+      <c r="J150" s="122"/>
+      <c r="K150" s="122"/>
+      <c r="L150" s="122"/>
+      <c r="M150" s="122"/>
+      <c r="N150" s="122"/>
+      <c r="O150" s="122"/>
+      <c r="P150" s="122"/>
+      <c r="Q150" s="122"/>
+      <c r="R150" s="129"/>
+      <c r="S150" s="129"/>
+      <c r="T150" s="129"/>
+      <c r="U150" s="129"/>
+      <c r="V150" s="129"/>
       <c r="W150" s="20"/>
       <c r="X150" s="21"/>
     </row>
@@ -11432,87 +11431,67 @@
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="R150:S150"/>
-    <mergeCell ref="T150:V150"/>
-    <mergeCell ref="M150:Q150"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:U72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="Q73:U73"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:U70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:U71"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:U68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:U69"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:U66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:U67"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:U60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="A122:D124"/>
-    <mergeCell ref="E122:F124"/>
-    <mergeCell ref="G122:I124"/>
-    <mergeCell ref="J122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:V122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="U123:V123"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="R124:X124"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="L62:U62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:U63"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:X83"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="W81:X81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="W82:X82"/>
+    <mergeCell ref="A81:D83"/>
+    <mergeCell ref="E81:F83"/>
+    <mergeCell ref="G81:I83"/>
+    <mergeCell ref="J81:K82"/>
+    <mergeCell ref="L81:O82"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="L61:U61"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:U57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="L59:U59"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A41:D43"/>
+    <mergeCell ref="E41:F43"/>
+    <mergeCell ref="G41:I43"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:O42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:V42"/>
     <mergeCell ref="W42:X42"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="R1:T1"/>
@@ -11537,74 +11516,94 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A41:D43"/>
-    <mergeCell ref="E41:F43"/>
-    <mergeCell ref="G41:I43"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:O42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="L61:U61"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:U57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="L59:U59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:U60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="A122:D124"/>
+    <mergeCell ref="E122:F124"/>
+    <mergeCell ref="G122:I124"/>
+    <mergeCell ref="J122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="R124:X124"/>
     <mergeCell ref="W123:X123"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="L62:U62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:U63"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:X83"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="W81:X81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="W82:X82"/>
-    <mergeCell ref="A81:D83"/>
-    <mergeCell ref="E81:F83"/>
-    <mergeCell ref="G81:I83"/>
-    <mergeCell ref="J81:K82"/>
-    <mergeCell ref="L81:O82"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:U66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:U67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:U68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:U69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:U70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:U71"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="R150:S150"/>
+    <mergeCell ref="T150:V150"/>
+    <mergeCell ref="M150:Q150"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:U72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="Q73:U73"/>
+    <mergeCell ref="L83:O83"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D128" location="'Xử lý chi tiết 1'!A1" display="Xem chi tiết" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D130" location="'Xử lý chi tiết 2'!A1" display="Xem chi thiết" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D132" location="'Xử lý chi tiết 3'!A1" display="Xem chi tiết" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D134" location="'xử lý chi tiết 4'!A1" display="Xem chi tiết" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D128" location="'Xử lý chi tiết 1'!A1" display="Xem chi tiết"/>
+    <hyperlink ref="D130" location="'Xử lý chi tiết 2'!A1" display="Xem chi thiết"/>
+    <hyperlink ref="D132" location="'Xử lý chi tiết 3'!A1" display="Xem chi tiết"/>
+    <hyperlink ref="D134" location="'xử lý chi tiết 4'!A1" display="Xem chi tiết"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" orientation="landscape" r:id="rId1"/>
@@ -11613,7 +11612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11623,112 +11622,112 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="148" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="148" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="157" t="s">
+      <c r="H1" s="151"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="158"/>
-      <c r="L1" s="148" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="161" t="s">
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163" t="s">
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="164"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="166" t="s">
+      <c r="S1" s="161"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="167"/>
-      <c r="W1" s="132">
+      <c r="V1" s="164"/>
+      <c r="W1" s="169">
         <v>45026</v>
       </c>
-      <c r="X1" s="133"/>
+      <c r="X1" s="170"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="161" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="166" t="s">
+      <c r="Q2" s="159"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="167"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="167"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="161" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="162"/>
-      <c r="L3" s="128" t="s">
+      <c r="K3" s="159"/>
+      <c r="L3" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="166" t="s">
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="128" t="s">
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="129"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="167"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="19"/>
@@ -11900,33 +11899,33 @@
       <c r="E10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="138" t="s">
+      <c r="F10" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138" t="s">
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138" t="s">
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138" t="s">
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138" t="s">
+      <c r="S10" s="168"/>
+      <c r="T10" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
       <c r="W10" s="2"/>
       <c r="X10" s="8"/>
     </row>
@@ -11938,31 +11937,31 @@
       <c r="E11" s="57">
         <v>1</v>
       </c>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137" t="s">
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="134" t="s">
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134" t="s">
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
       <c r="W11" s="2"/>
       <c r="X11" s="8"/>
     </row>
@@ -11981,14 +11980,14 @@
       <c r="L12" s="171"/>
       <c r="M12" s="171"/>
       <c r="N12" s="171"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="182"/>
+      <c r="S12" s="182"/>
+      <c r="T12" s="182"/>
+      <c r="U12" s="182"/>
+      <c r="V12" s="182"/>
       <c r="W12" s="20"/>
       <c r="X12" s="21"/>
     </row>
@@ -12054,33 +12053,33 @@
       <c r="E15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="138" t="s">
+      <c r="F15" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="176" t="s">
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="176" t="s">
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="177"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="176" t="s">
+      <c r="O15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="R15" s="178"/>
-      <c r="S15" s="176" t="s">
+      <c r="R15" s="181"/>
+      <c r="S15" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="T15" s="177"/>
-      <c r="U15" s="177"/>
-      <c r="V15" s="178"/>
+      <c r="T15" s="180"/>
+      <c r="U15" s="180"/>
+      <c r="V15" s="181"/>
       <c r="W15" s="20"/>
       <c r="X15" s="21"/>
     </row>
@@ -12092,29 +12091,29 @@
       <c r="E16" s="26">
         <v>1</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="173" t="s">
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="173" t="s">
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="178"/>
+      <c r="Q16" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="175"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="174"/>
-      <c r="U16" s="174"/>
-      <c r="V16" s="175"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="178"/>
       <c r="W16" s="20"/>
       <c r="X16" s="21"/>
     </row>
@@ -12126,29 +12125,29 @@
       <c r="E17" s="26">
         <v>2</v>
       </c>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="173" t="s">
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="173" t="s">
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="178"/>
+      <c r="Q17" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="175"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="174"/>
-      <c r="V17" s="175"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="178"/>
       <c r="W17" s="20"/>
       <c r="X17" s="21"/>
     </row>
@@ -12160,29 +12159,29 @@
       <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F18" s="130" t="s">
+      <c r="F18" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="173" t="s">
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="173" t="s">
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="175"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="175"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="178"/>
       <c r="W18" s="20"/>
       <c r="X18" s="21"/>
     </row>
@@ -12194,31 +12193,31 @@
       <c r="E19" s="26">
         <v>4</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="173" t="s">
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="174"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="174"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="174"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="173" t="s">
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="175"/>
-      <c r="S19" s="173" t="s">
+      <c r="R19" s="178"/>
+      <c r="S19" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="T19" s="174"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="175"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="178"/>
       <c r="W19" s="20"/>
       <c r="X19" s="21"/>
     </row>
@@ -12286,33 +12285,33 @@
       <c r="E22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="138" t="s">
+      <c r="F22" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="176" t="s">
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="176" t="s">
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="138" t="s">
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138" t="s">
+      <c r="S22" s="168"/>
+      <c r="T22" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
       <c r="W22" s="20"/>
       <c r="X22" s="21"/>
     </row>
@@ -12324,27 +12323,27 @@
       <c r="E23" s="55">
         <v>1</v>
       </c>
-      <c r="F23" s="130" t="s">
+      <c r="F23" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="179" t="s">
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="179"/>
-      <c r="Q23" s="179"/>
-      <c r="R23" s="180"/>
-      <c r="S23" s="180"/>
-      <c r="T23" s="180"/>
-      <c r="U23" s="180"/>
-      <c r="V23" s="180"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
       <c r="W23" s="20"/>
       <c r="X23" s="21"/>
     </row>
@@ -12356,29 +12355,29 @@
       <c r="E24" s="55">
         <v>2</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="179" t="s">
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179" t="s">
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174" t="s">
         <v>133</v>
       </c>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="179"/>
-      <c r="Q24" s="179"/>
-      <c r="R24" s="180"/>
-      <c r="S24" s="180"/>
-      <c r="T24" s="180"/>
-      <c r="U24" s="180"/>
-      <c r="V24" s="180"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
       <c r="W24" s="20"/>
       <c r="X24" s="21"/>
     </row>
@@ -12390,29 +12389,29 @@
       <c r="E25" s="55">
         <v>3</v>
       </c>
-      <c r="F25" s="130" t="s">
+      <c r="F25" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="179" t="s">
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="180" t="s">
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="180"/>
-      <c r="R25" s="180"/>
-      <c r="S25" s="180"/>
-      <c r="T25" s="180"/>
-      <c r="U25" s="180"/>
-      <c r="V25" s="180"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
       <c r="W25" s="20"/>
       <c r="X25" s="21"/>
     </row>
@@ -12424,29 +12423,29 @@
       <c r="E26" s="55">
         <v>4</v>
       </c>
-      <c r="F26" s="130" t="s">
+      <c r="F26" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="179" t="s">
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179" t="s">
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="180"/>
-      <c r="S26" s="180"/>
-      <c r="T26" s="180"/>
-      <c r="U26" s="180"/>
-      <c r="V26" s="180"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
       <c r="W26" s="20"/>
       <c r="X26" s="21"/>
     </row>
@@ -12458,29 +12457,29 @@
       <c r="E27" s="55">
         <v>5</v>
       </c>
-      <c r="F27" s="130" t="s">
+      <c r="F27" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="179" t="s">
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="180" t="s">
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="180"/>
-      <c r="S27" s="180"/>
-      <c r="T27" s="180"/>
-      <c r="U27" s="180"/>
-      <c r="V27" s="180"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="175"/>
       <c r="W27" s="20"/>
       <c r="X27" s="21"/>
     </row>
@@ -12492,29 +12491,29 @@
       <c r="E28" s="55">
         <v>6</v>
       </c>
-      <c r="F28" s="130" t="s">
+      <c r="F28" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="179" t="s">
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179" t="s">
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="180"/>
-      <c r="T28" s="180"/>
-      <c r="U28" s="180"/>
-      <c r="V28" s="180"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
       <c r="W28" s="20"/>
       <c r="X28" s="21"/>
     </row>
@@ -12527,20 +12526,20 @@
       <c r="F29" s="171"/>
       <c r="G29" s="171"/>
       <c r="H29" s="171"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
       <c r="W29" s="20"/>
       <c r="X29" s="21"/>
     </row>
@@ -12832,88 +12831,13 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
@@ -12922,20 +12846,95 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:V29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -12945,112 +12944,112 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="148" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="148" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="157" t="s">
+      <c r="H1" s="151"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="158"/>
-      <c r="L1" s="148" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="161" t="s">
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163" t="s">
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="164"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="166" t="s">
+      <c r="S1" s="161"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="167"/>
-      <c r="W1" s="132">
+      <c r="V1" s="164"/>
+      <c r="W1" s="169">
         <v>45026</v>
       </c>
-      <c r="X1" s="133"/>
+      <c r="X1" s="170"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="161" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="166" t="s">
+      <c r="Q2" s="159"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="167"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="167"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="157" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="183" t="s">
+      <c r="K3" s="155"/>
+      <c r="L3" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="185"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="189"/>
       <c r="P3" s="211" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="212"/>
-      <c r="R3" s="183" t="s">
+      <c r="R3" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="184"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="185"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="189"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="65"/>
@@ -13310,7 +13309,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="2"/>
       <c r="E13" s="203"/>
-      <c r="F13" s="155"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="204"/>
       <c r="H13" s="208" t="s">
         <v>123</v>
@@ -13337,28 +13336,28 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="186" t="s">
+      <c r="E14" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187" t="s">
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
       <c r="W14" s="2"/>
       <c r="X14" s="8"/>
     </row>
@@ -13367,26 +13366,26 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187" t="s">
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
       <c r="W15" s="2"/>
       <c r="X15" s="8"/>
     </row>
@@ -13395,26 +13394,26 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="188" t="s">
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="189"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="189"/>
-      <c r="S16" s="189"/>
-      <c r="T16" s="189"/>
-      <c r="U16" s="189"/>
-      <c r="V16" s="189"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
       <c r="W16" s="2"/>
       <c r="X16" s="8"/>
     </row>
@@ -13865,6 +13864,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="E14:G16"/>
     <mergeCell ref="H14:V14"/>
     <mergeCell ref="H15:V15"/>
@@ -13878,28 +13892,13 @@
     <mergeCell ref="H12:V12"/>
     <mergeCell ref="H13:V13"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -13909,112 +13908,112 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="186" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="214" t="s">
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="214"/>
-      <c r="L1" s="186" t="s">
+      <c r="K1" s="215"/>
+      <c r="L1" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="214" t="s">
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="186" t="s">
+      <c r="Q1" s="215"/>
+      <c r="R1" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="215" t="s">
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="215"/>
-      <c r="W1" s="216">
+      <c r="V1" s="213"/>
+      <c r="W1" s="214">
         <v>45026</v>
       </c>
-      <c r="X1" s="216"/>
+      <c r="X1" s="214"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="213"/>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="214" t="s">
+      <c r="A2" s="216"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="215" t="s">
+      <c r="Q2" s="215"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="215"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="213"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="214" t="s">
+      <c r="A3" s="216"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="214"/>
-      <c r="L3" s="180" t="s">
+      <c r="K3" s="215"/>
+      <c r="L3" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="215" t="s">
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="180" t="s">
+      <c r="Q3" s="213"/>
+      <c r="R3" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="78"/>
@@ -14203,6 +14202,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:V1"/>
@@ -14213,13 +14219,6 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14227,7 +14226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -14237,112 +14236,112 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="220" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="221" t="s">
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="L1" s="220" t="s">
+      <c r="K1" s="222"/>
+      <c r="L1" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="221" t="s">
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="220" t="s">
+      <c r="Q1" s="222"/>
+      <c r="R1" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="223" t="s">
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="223"/>
-      <c r="W1" s="224">
+      <c r="V1" s="219"/>
+      <c r="W1" s="220">
         <v>45026</v>
       </c>
-      <c r="X1" s="225"/>
+      <c r="X1" s="221"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="219"/>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="214" t="s">
+      <c r="A2" s="225"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="215" t="s">
+      <c r="Q2" s="215"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="215"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="222"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="217"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="219"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="214" t="s">
+      <c r="A3" s="225"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="214"/>
-      <c r="L3" s="180" t="s">
+      <c r="K3" s="215"/>
+      <c r="L3" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="215" t="s">
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="180" t="s">
+      <c r="Q3" s="213"/>
+      <c r="R3" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="222"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="217"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="78"/>
@@ -14528,6 +14527,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:V1"/>
@@ -14538,13 +14544,6 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
